--- a/sriramModel-nelson-atypical-patientID_12-sims-crh-5-iterations.xlsx
+++ b/sriramModel-nelson-atypical-patientID_12-sims-crh-5-iterations.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.995838067004306</v>
+        <v>1.039618433134399</v>
       </c>
       <c r="C2">
-        <v>1.142161069677913</v>
+        <v>1.034991488611569</v>
       </c>
       <c r="D2">
-        <v>1.227693982840883</v>
+        <v>1.02111232410077</v>
       </c>
       <c r="E2">
-        <v>1.067782429476351</v>
+        <v>1.138600082981388</v>
       </c>
       <c r="F2">
-        <v>1.087518338208851</v>
+        <v>1.174461599701592</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9917594202283088</v>
+        <v>1.079041601604283</v>
       </c>
       <c r="C3">
-        <v>1.283284753143776</v>
+        <v>1.069623641305278</v>
       </c>
       <c r="D3">
-        <v>1.453391064742017</v>
+        <v>1.042063415783518</v>
       </c>
       <c r="E3">
-        <v>1.135220268744242</v>
+        <v>1.276959385044288</v>
       </c>
       <c r="F3">
-        <v>1.174222975556601</v>
+        <v>1.348774094483577</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9877627719236434</v>
+        <v>1.118283091928229</v>
       </c>
       <c r="C4">
-        <v>1.423409265330214</v>
+        <v>1.10389854982168</v>
       </c>
       <c r="D4">
-        <v>1.677252954568813</v>
+        <v>1.062855824434467</v>
       </c>
       <c r="E4">
-        <v>1.202321112838489</v>
+        <v>1.415093108411408</v>
       </c>
       <c r="F4">
-        <v>1.26020466721323</v>
+        <v>1.522941986398387</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9838468360811842</v>
+        <v>1.157355064597604</v>
       </c>
       <c r="C5">
-        <v>1.562570430745699</v>
+        <v>1.13781815540801</v>
       </c>
       <c r="D5">
-        <v>1.899420467270233</v>
+        <v>1.083492033536423</v>
       </c>
       <c r="E5">
-        <v>1.269092253004892</v>
+        <v>1.553014975947502</v>
       </c>
       <c r="F5">
-        <v>1.345537086541357</v>
+        <v>1.696969543603241</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9800103272316006</v>
+        <v>1.196268418122466</v>
       </c>
       <c r="C6">
-        <v>1.700801891256362</v>
+        <v>1.171384239382544</v>
       </c>
       <c r="D6">
-        <v>2.120016483470258</v>
+        <v>1.103974463165443</v>
       </c>
       <c r="E6">
-        <v>1.335540712831532</v>
+        <v>1.690737414051569</v>
       </c>
       <c r="F6">
-        <v>1.430280828222285</v>
+        <v>1.870860811926598</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.976251959623347</v>
+        <v>1.235033015552545</v>
       </c>
       <c r="C7">
-        <v>1.838135269889977</v>
+        <v>1.20459842108774</v>
       </c>
       <c r="D7">
-        <v>2.339149392820533</v>
+        <v>1.124305471812009</v>
       </c>
       <c r="E7">
-        <v>1.401673244685903</v>
+        <v>1.828271723529528</v>
       </c>
       <c r="F7">
-        <v>1.514486032407724</v>
+        <v>2.044619629336359</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9725704462782919</v>
+        <v>1.273657794956295</v>
       </c>
       <c r="C8">
-        <v>1.974600356473604</v>
+        <v>1.237462162794641</v>
       </c>
       <c r="D8">
-        <v>2.556915232636485</v>
+        <v>1.144487358619614</v>
       </c>
       <c r="E8">
-        <v>1.467496350987973</v>
+        <v>1.965628181640261</v>
       </c>
       <c r="F8">
-        <v>1.59819449483186</v>
+        <v>2.218249637212879</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9689644977808628</v>
+        <v>1.312150864531311</v>
       </c>
       <c r="C9">
-        <v>2.110225236186044</v>
+        <v>1.269976767933478</v>
       </c>
       <c r="D9">
-        <v>2.773399440516766</v>
+        <v>1.164522365465541</v>
       </c>
       <c r="E9">
-        <v>1.533016295160963</v>
+        <v>2.102816179218991</v>
       </c>
       <c r="F9">
-        <v>1.681441323672079</v>
+        <v>2.391754289943041</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9654328205736505</v>
+        <v>1.350519626292052</v>
       </c>
       <c r="C10">
-        <v>2.245036427241504</v>
+        <v>1.302143380184389</v>
       </c>
       <c r="D10">
-        <v>2.988678525124837</v>
+        <v>1.184412678900616</v>
       </c>
       <c r="E10">
-        <v>1.598239104893653</v>
+        <v>2.23984432891478</v>
       </c>
       <c r="F10">
-        <v>1.76425595789895</v>
+        <v>2.565136865001891</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.961974114882462</v>
+        <v>1.38877084664855</v>
       </c>
       <c r="C11">
-        <v>2.379058984963703</v>
+        <v>1.333962982401065</v>
       </c>
       <c r="D11">
-        <v>3.202821248851489</v>
+        <v>1.204160431065915</v>
       </c>
       <c r="E11">
-        <v>1.663170590873314</v>
+        <v>2.376720523851409</v>
       </c>
       <c r="F11">
-        <v>1.846663025543458</v>
+        <v>2.738400472117296</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9585870720547555</v>
+        <v>1.426910727733407</v>
       </c>
       <c r="C12">
-        <v>2.51231661087139</v>
+        <v>1.36543639512789</v>
       </c>
       <c r="D12">
-        <v>3.41588959323776</v>
+        <v>1.223767702540299</v>
       </c>
       <c r="E12">
-        <v>1.727816352642453</v>
+        <v>2.513452018120892</v>
       </c>
       <c r="F12">
-        <v>1.928683019628336</v>
+        <v>2.911548061048964</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9552703709603687</v>
+        <v>1.464944972364519</v>
       </c>
       <c r="C13">
-        <v>2.644831757227074</v>
+        <v>1.396564274989632</v>
       </c>
       <c r="D13">
-        <v>3.627939613358544</v>
+        <v>1.243236524094913</v>
       </c>
       <c r="E13">
-        <v>1.792181779583277</v>
+        <v>2.650045491738954</v>
       </c>
       <c r="F13">
-        <v>2.010333066896728</v>
+        <v>3.084582428584373</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9520226738521865</v>
+        <v>1.50287883826767</v>
       </c>
       <c r="C14">
-        <v>2.776625708272281</v>
+        <v>1.427347112710731</v>
       </c>
       <c r="D14">
-        <v>3.839022299616691</v>
+        <v>1.262568877708036</v>
       </c>
       <c r="E14">
-        <v>1.856272057124478</v>
+        <v>2.786507106598783</v>
       </c>
       <c r="F14">
-        <v>2.091627070586363</v>
+        <v>3.257506225296471</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.948842619840899</v>
+        <v>1.540717181878175</v>
       </c>
       <c r="C15">
-        <v>2.907718649466583</v>
+        <v>1.457785230709766</v>
       </c>
       <c r="D15">
-        <v>4.049184066920226</v>
+        <v>1.281766697902311</v>
       </c>
       <c r="E15">
-        <v>1.920092173323456</v>
+        <v>2.922842548752797</v>
       </c>
       <c r="F15">
-        <v>2.172576029700389</v>
+        <v>3.430321961081214</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9457288185845947</v>
+        <v>1.578464497116792</v>
       </c>
       <c r="C16">
-        <v>3.038129736121507</v>
+        <v>1.487878780284325</v>
       </c>
       <c r="D16">
-        <v>4.258467268774938</v>
+        <v>1.300831873467847</v>
       </c>
       <c r="E16">
-        <v>1.98364691962022</v>
+        <v>3.059057071535517</v>
       </c>
       <c r="F16">
-        <v>2.253188335022984</v>
+        <v>3.603032010767702</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9426798417333117</v>
+        <v>1.616124950973947</v>
       </c>
       <c r="C17">
-        <v>3.167877156211614</v>
+        <v>1.517627738325881</v>
       </c>
       <c r="D17">
-        <v>4.466910613819337</v>
+        <v>1.31976624873895</v>
       </c>
       <c r="E17">
-        <v>2.046940896930793</v>
+        <v>3.195155537831298</v>
       </c>
       <c r="F17">
-        <v>2.333470003834513</v>
+        <v>3.775638618721731</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9396942123474737</v>
+        <v>1.653702413921362</v>
       </c>
       <c r="C18">
-        <v>3.296978190457066</v>
+        <v>1.547031902130132</v>
       </c>
       <c r="D18">
-        <v>4.674549543588557</v>
+        <v>1.338571625205496</v>
       </c>
       <c r="E18">
-        <v>2.109978507531088</v>
+        <v>3.331142452238919</v>
       </c>
       <c r="F18">
-        <v>2.413424792375578</v>
+        <v>3.948143902980932</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9367703925828502</v>
+        <v>1.691200491085046</v>
       </c>
       <c r="C19">
-        <v>3.425449259511827</v>
+        <v>1.576090891135686</v>
       </c>
       <c r="D19">
-        <v>4.881416561400837</v>
+        <v>1.35724976270109</v>
       </c>
       <c r="E19">
-        <v>2.172763971403024</v>
+        <v>3.467021985980854</v>
       </c>
       <c r="F19">
-        <v>2.493054251938575</v>
+        <v>4.120549858859401</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9339067677521197</v>
+        <v>1.728622541993035</v>
       </c>
       <c r="C20">
-        <v>3.553305962784372</v>
+        <v>1.604804136256945</v>
       </c>
       <c r="D20">
-        <v>5.08754149487177</v>
+        <v>1.375802380306812</v>
       </c>
       <c r="E20">
-        <v>2.235301297558317</v>
+        <v>3.602798000987016</v>
       </c>
       <c r="F20">
-        <v>2.572357780473381</v>
+        <v>4.29285836181564</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9311016273958292</v>
+        <v>1.765971701214807</v>
       </c>
       <c r="C21">
-        <v>3.680563127544327</v>
+        <v>1.633170877187808</v>
       </c>
       <c r="D21">
-        <v>5.292951686520786</v>
+        <v>1.394231157280581</v>
       </c>
       <c r="E21">
-        <v>2.297594287663792</v>
+        <v>3.738474073013832</v>
       </c>
       <c r="F21">
-        <v>2.651332662065785</v>
+        <v>4.465071170095154</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9283531428097174</v>
+        <v>1.803250897436006</v>
       </c>
       <c r="C22">
-        <v>3.807234824621737</v>
+        <v>1.661190155419105</v>
       </c>
       <c r="D22">
-        <v>5.497672158800452</v>
+        <v>1.412537734402448</v>
       </c>
       <c r="E22">
-        <v>2.359646525343793</v>
+        <v>3.874053512746441</v>
       </c>
       <c r="F22">
-        <v>2.729974071361798</v>
+        <v>4.637189926635219</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9256593397218786</v>
+        <v>1.840462870384073</v>
       </c>
       <c r="C23">
-        <v>3.933334401961179</v>
+        <v>1.688860808954251</v>
       </c>
       <c r="D23">
-        <v>5.701725750796708</v>
+        <v>1.430723714999287</v>
       </c>
       <c r="E23">
-        <v>2.421461364701901</v>
+        <v>4.009539380981913</v>
       </c>
       <c r="F23">
-        <v>2.808275042536879</v>
+        <v>4.809216160571237</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9230180666777571</v>
+        <v>1.877610183796502</v>
       </c>
       <c r="C24">
-        <v>4.058874508675865</v>
+        <v>1.716181467271845</v>
       </c>
       <c r="D24">
-        <v>5.905133216624428</v>
+        <v>1.448790665895935</v>
       </c>
       <c r="E24">
-        <v>2.483041915472265</v>
+        <v>4.144934506810913</v>
       </c>
       <c r="F24">
-        <v>2.886226416094142</v>
+        <v>4.981151287795966</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9204269566238772</v>
+        <v>1.91469523964635</v>
       </c>
       <c r="C25">
-        <v>4.183867108754409</v>
+        <v>1.743150543370672</v>
       </c>
       <c r="D25">
-        <v>6.107913286630304</v>
+        <v>1.466740118322785</v>
       </c>
       <c r="E25">
-        <v>2.544391017877495</v>
+        <v>4.280241497483747</v>
       </c>
       <c r="F25">
-        <v>2.963816770899116</v>
+        <v>5.152996611368712</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.9178833810089372</v>
+        <v>1.951720288740689</v>
       </c>
       <c r="C26">
-        <v>4.308323490386661</v>
+        <v>1.769766225173448</v>
       </c>
       <c r="D26">
-        <v>6.310082687643413</v>
+        <v>1.484573568577093</v>
       </c>
       <c r="E26">
-        <v>2.60551121431149</v>
+        <v>4.415462747782972</v>
       </c>
       <c r="F26">
-        <v>3.041032339739183</v>
+        <v>5.32475332124399</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.91538439708106</v>
+        <v>1.988687441433385</v>
       </c>
       <c r="C27">
-        <v>4.432254271141996</v>
+        <v>1.796026466762343</v>
       </c>
       <c r="D27">
-        <v>6.511656131300203</v>
+        <v>1.502292478805102</v>
       </c>
       <c r="E27">
-        <v>2.666404715744385</v>
+        <v>4.550600451967786</v>
       </c>
       <c r="F27">
-        <v>3.117856905810628</v>
+        <v>5.496422493270403</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.9129266855397767</v>
+        <v>2.025598673923172</v>
       </c>
       <c r="C28">
-        <v>4.555669398991811</v>
+        <v>1.821928978978482</v>
       </c>
       <c r="D28">
-        <v>6.712646247262756</v>
+        <v>1.519898277721526</v>
       </c>
       <c r="E28">
-        <v>2.727073357941122</v>
+        <v>4.685656609755099</v>
       </c>
       <c r="F28">
-        <v>3.194271680198946</v>
+        <v>5.668005087566262</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.9105064789219357</v>
+        <v>2.062455836285261</v>
       </c>
       <c r="C29">
-        <v>4.678578134024367</v>
+        <v>1.847471219323764</v>
       </c>
       <c r="D29">
-        <v>6.913063484051505</v>
+        <v>1.537392361235829</v>
       </c>
       <c r="E29">
-        <v>2.787518549141762</v>
+        <v>4.820633032543729</v>
       </c>
       <c r="F29">
-        <v>3.270255163565035</v>
+        <v>5.83950194614848</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.908119479358976</v>
+        <v>2.099260658315697</v>
       </c>
       <c r="C30">
-        <v>4.800989032672498</v>
+        <v>1.872650380983149</v>
       </c>
       <c r="D30">
-        <v>7.112915955958528</v>
+        <v>1.554776093030722</v>
       </c>
       <c r="E30">
-        <v>2.847741206615414</v>
+        <v>4.95553134811767</v>
       </c>
       <c r="F30">
-        <v>3.345782993556087</v>
+        <v>6.010913789402276</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.9057607605092337</v>
+        <v>2.136014754572154</v>
       </c>
       <c r="C31">
-        <v>4.922909928205463</v>
+        <v>1.897463380364616</v>
       </c>
       <c r="D31">
-        <v>7.312209231693049</v>
+        <v>1.572050805025284</v>
       </c>
       <c r="E31">
-        <v>2.907741677435703</v>
+        <v>5.090353005540549</v>
       </c>
       <c r="F31">
-        <v>3.420827777803594</v>
+        <v>6.18224121215006</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.9034246597246272</v>
+        <v>2.172719627258841</v>
       </c>
       <c r="C32">
-        <v>5.044347881940458</v>
+        <v>1.921906843659393</v>
       </c>
       <c r="D32">
-        <v>7.510946057083868</v>
+        <v>1.589217797748562</v>
       </c>
       <c r="E32">
-        <v>2.967519651459635</v>
+        <v>5.225099273588406</v>
       </c>
       <c r="F32">
-        <v>3.495358912568252</v>
+        <v>6.353484678543796</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.9011046528439843</v>
+        <v>2.209376668822019</v>
       </c>
       <c r="C33">
-        <v>5.165309133687297</v>
+        <v>1.945977092557479</v>
       </c>
       <c r="D33">
-        <v>7.709126000050563</v>
+        <v>1.606278340653209</v>
       </c>
       <c r="E33">
-        <v>3.027074039944985</v>
+        <v>5.359771241546126</v>
       </c>
       <c r="F33">
-        <v>3.569342388057079</v>
+        <v>6.524644515807424</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.8987932145817513</v>
+        <v>2.245987163183113</v>
       </c>
       <c r="C34">
-        <v>5.285799046134785</v>
+        <v>1.969670128271625</v>
       </c>
       <c r="D34">
-        <v>7.906745014008583</v>
+        <v>1.623233672323219</v>
       </c>
       <c r="E34">
-        <v>3.086402843263362</v>
+        <v>5.494369818980255</v>
       </c>
       <c r="F34">
-        <v>3.642740581840665</v>
+        <v>6.695720907136883</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.8964816665148608</v>
+        <v>2.282552285623193</v>
       </c>
       <c r="C35">
-        <v>5.40582201356406</v>
+        <v>1.992981614566494</v>
       </c>
       <c r="D35">
-        <v>8.103794896490459</v>
+        <v>1.640085000571904</v>
       </c>
       <c r="E35">
-        <v>3.145502986468696</v>
+        <v>5.628895729845475</v>
       </c>
       <c r="F35">
-        <v>3.715512041707717</v>
+        <v>6.866713882372154</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.894159998576437</v>
+        <v>2.319073100516211</v>
       </c>
       <c r="C36">
-        <v>5.525381352875216</v>
+        <v>2.015906859130971</v>
       </c>
       <c r="D36">
-        <v>8.300262621973237</v>
+        <v>1.656833502433893</v>
       </c>
       <c r="E36">
-        <v>3.204370134496678</v>
+        <v>5.763349507712497</v>
       </c>
       <c r="F36">
-        <v>3.787611259384156</v>
+        <v>7.037623307669908</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.8918166815134893</v>
+        <v>2.355550558378256</v>
       </c>
       <c r="C37">
-        <v>5.644479181933118</v>
+        <v>2.03844079318834</v>
       </c>
       <c r="D37">
-        <v>8.496129546413151</v>
+        <v>1.673480323958793</v>
       </c>
       <c r="E37">
-        <v>3.26299845637151</v>
+        <v>5.897731489743497</v>
       </c>
       <c r="F37">
-        <v>3.858988437020383</v>
+        <v>7.208448873151675</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.8894384604868111</v>
+        <v>2.391985491228885</v>
       </c>
       <c r="C38">
-        <v>5.763116265581658</v>
+        <v>2.060577949531532</v>
       </c>
       <c r="D38">
-        <v>8.691370448667561</v>
+        <v>1.690026579876102</v>
       </c>
       <c r="E38">
-        <v>3.321380351050149</v>
+        <v>6.032041805559532</v>
       </c>
       <c r="F38">
-        <v>3.929589248964185</v>
+        <v>7.379190078182575</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.887010132298527</v>
+        <v>2.42837860568299</v>
       </c>
       <c r="C39">
-        <v>5.881291794429667</v>
+        <v>2.082312438539481</v>
       </c>
       <c r="D39">
-        <v>8.88595238721669</v>
+        <v>1.706473353052446</v>
       </c>
       <c r="E39">
-        <v>3.37950612761015</v>
+        <v>6.166280364113197</v>
       </c>
       <c r="F39">
-        <v>3.999354601910965</v>
+        <v>7.549846215047661</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.8845143154035408</v>
+        <v>2.464730473094901</v>
       </c>
       <c r="C40">
-        <v>5.999003133078181</v>
+        <v>2.103637921718</v>
       </c>
       <c r="D40">
-        <v>9.079833344417146</v>
+        <v>1.722821693694812</v>
       </c>
       <c r="E40">
-        <v>3.437363627385408</v>
+        <v>6.300446839743925</v>
       </c>
       <c r="F40">
-        <v>4.068220397124899</v>
+        <v>7.720416348212093</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.8819311986153786</v>
+        <v>2.501041517795072</v>
       </c>
       <c r="C41">
-        <v>6.116245568169743</v>
+        <v>2.12454758343108</v>
       </c>
       <c r="D41">
-        <v>9.272960616664244</v>
+        <v>1.739072618345519</v>
       </c>
       <c r="E41">
-        <v>3.494937800014887</v>
+        <v>6.434540653525268</v>
       </c>
       <c r="F41">
-        <v>4.136117299170267</v>
+        <v>7.890899291093117</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.8792382940228577</v>
+        <v>2.53731200299407</v>
       </c>
       <c r="C42">
-        <v>6.233011856203217</v>
+        <v>2.145034099913474</v>
       </c>
       <c r="D42">
-        <v>9.465268976971675</v>
+        <v>1.755227108430143</v>
       </c>
       <c r="E42">
-        <v>3.552210163783966</v>
+        <v>6.568560947969367</v>
       </c>
       <c r="F42">
-        <v>4.202970516494136</v>
+        <v>8.061293578535317</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.8764101894928507</v>
+        <v>2.573542011851424</v>
       </c>
       <c r="C43">
-        <v>6.349291748604759</v>
+        <v>2.165089605320905</v>
       </c>
       <c r="D43">
-        <v>9.656678457139137</v>
+        <v>1.771286108452643</v>
       </c>
       <c r="E43">
-        <v>3.609158224123772</v>
+        <v>6.702506559743809</v>
       </c>
       <c r="F43">
-        <v>4.268699600211089</v>
+        <v>8.231597433944296</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.8734183090945872</v>
+        <v>2.609731423843295</v>
       </c>
       <c r="C44">
-        <v>6.465071481123995</v>
+        <v>2.184705655986223</v>
       </c>
       <c r="D44">
-        <v>9.847091834367884</v>
+        <v>1.787250523663552</v>
       </c>
       <c r="E44">
-        <v>3.665754784106278</v>
+        <v>6.836375991347463</v>
       </c>
       <c r="F44">
-        <v>4.33321826853418</v>
+        <v>8.40180873226911</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.8702306894974094</v>
+        <v>2.645879886540992</v>
       </c>
       <c r="C45">
-        <v>6.580332976300009</v>
+        <v>2.20387318951267</v>
       </c>
       <c r="D45">
-        <v>10.03639174304147</v>
+        <v>1.803121217066963</v>
       </c>
       <c r="E45">
-        <v>3.721967204541803</v>
+        <v>6.97016736386534</v>
       </c>
       <c r="F45">
-        <v>4.396434265483503</v>
+        <v>8.57192495348623</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.8668117897890069</v>
+        <v>2.681986783457983</v>
       </c>
       <c r="C46">
-        <v>6.695052901541853</v>
+        <v>2.222582482034422</v>
       </c>
       <c r="D46">
-        <v>10.22443739684436</v>
+        <v>1.818899005685159</v>
       </c>
       <c r="E46">
-        <v>3.777756496968109</v>
+        <v>7.103878369596747</v>
       </c>
       <c r="F46">
-        <v>4.458249263786477</v>
+        <v>8.741943128682822</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.8631223511990321</v>
+        <v>2.718051190805359</v>
       </c>
       <c r="C47">
-        <v>6.809201438916406</v>
+        <v>2.240823101411429</v>
       </c>
       <c r="D47">
-        <v>10.41106091813831</v>
+        <v>1.834584655859383</v>
       </c>
       <c r="E47">
-        <v>3.833076362505555</v>
+        <v>7.237506222848253</v>
       </c>
       <c r="F47">
-        <v>4.518558823236665</v>
+        <v>8.911859775693781</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.8591193151837665</v>
+        <v>2.754071825694836</v>
       </c>
       <c r="C48">
-        <v>6.922740852993746</v>
+        <v>2.258583855349441</v>
       </c>
       <c r="D48">
-        <v>10.59606328636375</v>
+        <v>1.850178877036271</v>
       </c>
       <c r="E48">
-        <v>3.887872139248988</v>
+        <v>7.371047579488071</v>
       </c>
       <c r="F48">
-        <v>4.577252417157371</v>
+        <v>9.081670821499181</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.8547558285868698</v>
+        <v>2.790046983124161</v>
       </c>
       <c r="C49">
-        <v>7.035623671140188</v>
+        <v>2.275852739341903</v>
       </c>
       <c r="D49">
-        <v>10.77920998628274</v>
+        <v>1.865682314101719</v>
       </c>
       <c r="E49">
-        <v>3.942079687280695</v>
+        <v>7.504498451361767</v>
       </c>
       <c r="F49">
-        <v>4.634213540973144</v>
+        <v>9.25137151147384</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.8499813283023541</v>
+        <v>2.825974465639711</v>
       </c>
       <c r="C50">
-        <v>7.147790337934063</v>
+        <v>2.29261687793458</v>
       </c>
       <c r="D50">
-        <v>10.96022641694142</v>
+        <v>1.881095537493617</v>
       </c>
       <c r="E50">
-        <v>3.995624211712614</v>
+        <v>7.63785411577031</v>
       </c>
       <c r="F50">
-        <v>4.689319918166444</v>
+        <v>9.420956295636341</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.8447417697279033</v>
+        <v>2.861851485792089</v>
       </c>
       <c r="C51">
-        <v>7.259166273206396</v>
+        <v>2.308862460811203</v>
       </c>
       <c r="D51">
-        <v>11.13879320477074</v>
+        <v>1.896419030214029</v>
       </c>
       <c r="E51">
-        <v>4.048419062273097</v>
+        <v>7.771108979969896</v>
       </c>
       <c r="F51">
-        <v>4.742443820816852</v>
+        <v>9.590418690066956</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.8389799850578415</v>
+        <v>2.897674551592974</v>
       </c>
       <c r="C52">
-        <v>7.369658395859823</v>
+        <v>2.324574676414165</v>
       </c>
       <c r="D52">
-        <v>11.31454226434021</v>
+        <v>1.911653172182809</v>
       </c>
       <c r="E52">
-        <v>4.100364685406145</v>
+        <v>7.904256418839351</v>
       </c>
       <c r="F52">
-        <v>4.793452596223967</v>
+        <v>9.759751109618891</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1.217195199243009</v>
+        <v>2.933439323045487</v>
       </c>
       <c r="C53">
-        <v>8.801346179509972</v>
+        <v>2.339737642101453</v>
       </c>
       <c r="D53">
-        <v>13.48271057029382</v>
+        <v>1.926798217989647</v>
       </c>
       <c r="E53">
-        <v>4.767786010677671</v>
+        <v>8.037288598366123</v>
       </c>
       <c r="F53">
-        <v>5.810040316703933</v>
+        <v>9.928944658190275</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1.581330042356469</v>
+        <v>2.969140453772019</v>
       </c>
       <c r="C54">
-        <v>10.2211094612673</v>
+        <v>2.354334331937283</v>
       </c>
       <c r="D54">
-        <v>15.61337840940826</v>
+        <v>1.941854269621432</v>
       </c>
       <c r="E54">
-        <v>5.424038581050801</v>
+        <v>8.170196244392464</v>
       </c>
       <c r="F54">
-        <v>6.802210300423185</v>
+        <v>10.0979888743947</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>1.932519255321012</v>
+        <v>3.004771361422522</v>
       </c>
       <c r="C55">
-        <v>11.62751270476877</v>
+        <v>2.368346502528625</v>
       </c>
       <c r="D55">
-        <v>17.70146607904087</v>
+        <v>1.956821238476298</v>
       </c>
       <c r="E55">
-        <v>6.067824772128793</v>
+        <v>8.302968317694766</v>
       </c>
       <c r="F55">
-        <v>7.768625480551284</v>
+        <v>10.26687141115995</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>2.27102651507133</v>
+        <v>3.040323960697518</v>
       </c>
       <c r="C56">
-        <v>13.01859121215131</v>
+        <v>2.381754618493732</v>
       </c>
       <c r="D56">
-        <v>19.74120649271727</v>
+        <v>1.971698792691694</v>
       </c>
       <c r="E56">
-        <v>6.697668538224354</v>
+        <v>8.435591700592434</v>
       </c>
       <c r="F56">
-        <v>8.707875141345392</v>
+        <v>10.43557761848963</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>2.596682862590775</v>
+        <v>3.075788316855717</v>
       </c>
       <c r="C57">
-        <v>14.39178854506362</v>
+        <v>2.394537781210718</v>
       </c>
       <c r="D57">
-        <v>21.72620457309918</v>
+        <v>1.986486291371395</v>
       </c>
       <c r="E57">
-        <v>7.311929279398312</v>
+        <v>8.568050637963609</v>
       </c>
       <c r="F57">
-        <v>9.618503045669303</v>
+        <v>10.60409002636676</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>2.909082197009473</v>
+        <v>3.11115226601116</v>
       </c>
       <c r="C58">
-        <v>15.74387957544697</v>
+        <v>2.406673663596036</v>
       </c>
       <c r="D58">
-        <v>23.64951823867444</v>
+        <v>2.001182692107846</v>
       </c>
       <c r="E58">
-        <v>7.908823514383853</v>
+        <v>8.700326162558451</v>
       </c>
       <c r="F58">
-        <v>10.4990270830827</v>
+        <v>10.77238766988354</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>3.207682212397547</v>
+        <v>3.146400835040148</v>
       </c>
       <c r="C59">
-        <v>17.07088517846268</v>
+        <v>2.418138458274191</v>
       </c>
       <c r="D59">
-        <v>25.50377645749771</v>
+        <v>2.015786421341175</v>
       </c>
       <c r="E59">
-        <v>8.486455910914591</v>
+        <v>8.832395341635781</v>
       </c>
       <c r="F59">
-        <v>11.3479578916275</v>
+        <v>10.94044529472131</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>3.491866944103875</v>
+        <v>3.181515571611977</v>
       </c>
       <c r="C60">
-        <v>18.36800451462528</v>
+        <v>2.4289068363845</v>
       </c>
       <c r="D60">
-        <v>27.28134705464978</v>
+        <v>2.030295194011263</v>
       </c>
       <c r="E60">
-        <v>9.042861294321053</v>
+        <v>8.964230260853974</v>
       </c>
       <c r="F60">
-        <v>12.16381847568074</v>
+        <v>11.1082320643259</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>3.760988828467368</v>
+        <v>3.21647374200479</v>
       </c>
       <c r="C61">
-        <v>19.62957647496321</v>
+        <v>2.438951941882797</v>
       </c>
       <c r="D61">
-        <v>28.97455499309099</v>
+        <v>2.044705761727846</v>
       </c>
       <c r="E61">
-        <v>9.576057995821081</v>
+        <v>9.095796680674617</v>
       </c>
       <c r="F61">
-        <v>12.94516632845996</v>
+        <v>11.27571012118462</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>4.014401949907958</v>
+        <v>3.251247069077645</v>
       </c>
       <c r="C62">
-        <v>20.84910337406457</v>
+        <v>2.448245425303579</v>
       </c>
       <c r="D62">
-        <v>30.5759584261696</v>
+        <v>2.059013564357613</v>
       </c>
       <c r="E62">
-        <v>10.08411237049034</v>
+        <v>9.227052270483309</v>
       </c>
       <c r="F62">
-        <v>13.6906190963407</v>
+        <v>11.44283259067855</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>4.251489900470763</v>
+        <v>3.28580034737486</v>
       </c>
       <c r="C63">
-        <v>22.01936607988758</v>
+        <v>2.456757527002869</v>
       </c>
       <c r="D63">
-        <v>32.07867118805861</v>
+        <v>2.073212198179821</v>
       </c>
       <c r="E63">
-        <v>10.56521178759473</v>
+        <v>9.357944262482638</v>
       </c>
       <c r="F63">
-        <v>14.39888393167037</v>
+        <v>11.60954081545809</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>4.471691159478842</v>
+        <v>3.320089620981324</v>
       </c>
       <c r="C64">
-        <v>23.1326600798701</v>
+        <v>2.464457221275865</v>
       </c>
       <c r="D64">
-        <v>33.47671341952018</v>
+        <v>2.087292717507</v>
       </c>
       <c r="E64">
-        <v>11.01774206216158</v>
+        <v>9.488406293382821</v>
       </c>
       <c r="F64">
-        <v>15.06879041565251</v>
+        <v>11.77576055684722</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>4.674522551039959</v>
+        <v>3.354059741595977</v>
       </c>
       <c r="C65">
-        <v>24.18116788635462</v>
+        <v>2.471312513866736</v>
       </c>
       <c r="D65">
-        <v>34.76536324410883</v>
+        <v>2.101242616286841</v>
       </c>
       <c r="E65">
-        <v>11.44036433258943</v>
+        <v>9.618354251334139</v>
       </c>
       <c r="F65">
-        <v>15.69932655476764</v>
+        <v>11.94139676634203</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>4.859600929271135</v>
+        <v>3.38764117530966</v>
       </c>
       <c r="C66">
-        <v>25.15745923525292</v>
+        <v>2.477290804628273</v>
       </c>
       <c r="D66">
-        <v>35.94147249502173</v>
+        <v>2.115044416335356</v>
       </c>
       <c r="E66">
-        <v>11.83208403651914</v>
+        <v>9.747680191788879</v>
       </c>
       <c r="F66">
-        <v>16.28967651903932</v>
+        <v>12.10632628081785</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>5.026662786469611</v>
+        <v>3.420745909671319</v>
       </c>
       <c r="C67">
-        <v>26.05507435391346</v>
+        <v>2.482359408679899</v>
       </c>
       <c r="D67">
-        <v>37.00370824837431</v>
+        <v>2.128673747708489</v>
       </c>
       <c r="E67">
-        <v>12.19230565784436</v>
+        <v>9.876244275721511</v>
       </c>
       <c r="F67">
-        <v>16.83925885589218</v>
+        <v>12.27038771382856</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5.175581074628559</v>
+        <v>3.453262180107318</v>
       </c>
       <c r="C68">
-        <v>26.86911035864318</v>
+        <v>2.486486273026295</v>
       </c>
       <c r="D68">
-        <v>37.95268592584707</v>
+        <v>2.142096825835269</v>
       </c>
       <c r="E68">
-        <v>12.52086736998787</v>
+        <v>10.00386408694717</v>
       </c>
       <c r="F68">
-        <v>17.34776334502647</v>
+        <v>12.43336640082406</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>5.306378465107704</v>
+        <v>3.485047377299003</v>
       </c>
       <c r="C69">
-        <v>27.5967080861523</v>
+        <v>2.48964088821462</v>
       </c>
       <c r="D69">
-        <v>38.790971831932</v>
+        <v>2.155267250940051</v>
       </c>
       <c r="E69">
-        <v>12.81805135789914</v>
+        <v>10.13029973353695</v>
       </c>
       <c r="F69">
-        <v>17.81518275465784</v>
+        <v>12.59497409083025</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>5.41923622417688</v>
+        <v>3.515919653266759</v>
       </c>
       <c r="C70">
-        <v>28.23734166994104</v>
+        <v>2.491795389224007</v>
       </c>
       <c r="D70">
-        <v>39.52295082844967</v>
+        <v>2.168122149403882</v>
       </c>
       <c r="E70">
-        <v>13.08456900938824</v>
+        <v>10.25523334784373</v>
       </c>
       <c r="F70">
-        <v>18.2418375090828</v>
+        <v>12.75482077588225</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>5.51449801076442</v>
+        <v>3.545647317694041</v>
       </c>
       <c r="C71">
-        <v>28.79285132464938</v>
+        <v>2.492925828963136</v>
       </c>
       <c r="D71">
-        <v>40.15457418613581</v>
+        <v>2.180577890898862</v>
       </c>
       <c r="E71">
-        <v>13.3215223713362</v>
+        <v>10.3782432195276</v>
       </c>
       <c r="F71">
-        <v>18.62839072079493</v>
+        <v>12.91237535729479</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>5.592668124452269</v>
+        <v>3.573936183192061</v>
       </c>
       <c r="C72">
-        <v>29.26721604391307</v>
+        <v>2.493013560525069</v>
       </c>
       <c r="D72">
-        <v>40.69301921960081</v>
+        <v>2.192525685984108</v>
       </c>
       <c r="E72">
-        <v>13.53034686207268</v>
+        <v>10.49877155467606</v>
       </c>
       <c r="F72">
-        <v>18.97585033303234</v>
+        <v>13.0669164148399</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>5.654404027226481</v>
+        <v>3.60041591781899</v>
       </c>
       <c r="C73">
-        <v>29.66612306965328</v>
+        <v>2.492046648087181</v>
       </c>
       <c r="D73">
-        <v>41.14630152871127</v>
+        <v>2.203827824663551</v>
       </c>
       <c r="E73">
-        <v>13.71274079083604</v>
+        <v>10.61608789047243</v>
       </c>
       <c r="F73">
-        <v>19.28555719038583</v>
+        <v>13.2174751215784</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>5.700503301608698</v>
+        <v>3.624626915362926</v>
       </c>
       <c r="C74">
-        <v>29.99642515593187</v>
+        <v>2.490021159160823</v>
       </c>
       <c r="D74">
-        <v>41.52288286128531</v>
+        <v>2.214315606816128</v>
       </c>
       <c r="E74">
-        <v>13.87058898055181</v>
+        <v>10.72925548926625</v>
       </c>
       <c r="F74">
-        <v>19.55915833361735</v>
+        <v>13.36278156581702</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>5.731885542527793</v>
+        <v>3.646010972421994</v>
       </c>
       <c r="C75">
-        <v>30.26558416597635</v>
+        <v>2.486942167211649</v>
       </c>
       <c r="D75">
-        <v>41.831310672006</v>
+        <v>2.223790439069351</v>
       </c>
       <c r="E75">
-        <v>14.00588735627625</v>
+        <v>10.83711448107433</v>
       </c>
       <c r="F75">
-        <v>19.79856644837736</v>
+        <v>13.5012396671291</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>5.749569982857364</v>
+        <v>3.663911937025389</v>
       </c>
       <c r="C76">
-        <v>30.48117850466859</v>
+        <v>2.482824306935249</v>
       </c>
       <c r="D76">
-        <v>42.07991512051014</v>
+        <v>2.232029755533551</v>
       </c>
       <c r="E76">
-        <v>14.12067304479881</v>
+        <v>10.9383039333794</v>
       </c>
       <c r="F76">
-        <v>20.00590787285866</v>
+        <v>13.63096829784412</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5.754649899524853</v>
+        <v>3.677593275949219</v>
       </c>
       <c r="C77">
-        <v>30.65051928511925</v>
+        <v>2.477691858459693</v>
       </c>
       <c r="D77">
-        <v>42.27657672285173</v>
+        <v>2.238799112919255</v>
       </c>
       <c r="E77">
-        <v>14.21696445785407</v>
+        <v>11.03135089284802</v>
       </c>
       <c r="F77">
-        <v>20.18346275485724</v>
+        <v>13.74994885401728</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5.748265033420139</v>
+        <v>3.68627944325417</v>
       </c>
       <c r="C78">
-        <v>30.78038868475572</v>
+        <v>2.471578233603914</v>
       </c>
       <c r="D78">
-        <v>42.42856695178056</v>
+        <v>2.243870669548229</v>
       </c>
       <c r="E78">
-        <v>14.2967131796022</v>
+        <v>11.11483629799401</v>
       </c>
       <c r="F78">
-        <v>20.33360177521811</v>
+        <v>13.85629229709262</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>5.731573378429384</v>
+        <v>3.689225521022418</v>
       </c>
       <c r="C79">
-        <v>30.8768900509452</v>
+        <v>2.464524941793134</v>
       </c>
       <c r="D79">
-        <v>42.54245570717286</v>
+        <v>2.247046286454351</v>
       </c>
       <c r="E79">
-        <v>14.3617678221522</v>
+        <v>11.18762352654883</v>
       </c>
       <c r="F79">
-        <v>20.4587239904466</v>
+        <v>13.94857847699172</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>5.705723716569366</v>
+        <v>3.685808196769562</v>
       </c>
       <c r="C80">
-        <v>30.94538785901202</v>
+        <v>2.456580178057984</v>
       </c>
       <c r="D80">
-        <v>42.624074591717</v>
+        <v>2.248181217568407</v>
       </c>
       <c r="E80">
-        <v>14.41384963428908</v>
+        <v>11.24908341666356</v>
       </c>
       <c r="F80">
-        <v>20.56119987677879</v>
+        <v>14.02615663799856</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>5.671830290832506</v>
+        <v>3.675620133686904</v>
       </c>
       <c r="C81">
-        <v>30.9905117310462</v>
+        <v>2.447797166411112</v>
       </c>
       <c r="D81">
-        <v>42.67852325068837</v>
+        <v>2.247202937269724</v>
       </c>
       <c r="E81">
-        <v>14.45453817191487</v>
+        <v>11.29923056489634</v>
       </c>
       <c r="F81">
-        <v>20.64332269115326</v>
+        <v>14.08927938956072</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>5.630950874906915</v>
+        <v>3.658540732278703</v>
       </c>
       <c r="C82">
-        <v>31.01620134592063</v>
+        <v>2.438232450300548</v>
       </c>
       <c r="D82">
-        <v>42.71020575943692</v>
+        <v>2.244120141254539</v>
       </c>
       <c r="E82">
-        <v>14.48526528160909</v>
+        <v>11.33871187479498</v>
       </c>
       <c r="F82">
-        <v>20.70727000284868</v>
+        <v>14.13901961172276</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>5.584069363999178</v>
+        <v>3.63475867665864</v>
       </c>
       <c r="C83">
-        <v>31.02577372800795</v>
+        <v>2.427944256425132</v>
       </c>
       <c r="D83">
-        <v>42.722886086092</v>
+        <v>2.239019632388311</v>
       </c>
       <c r="E83">
-        <v>14.50731558733144</v>
+        <v>11.36865702491474</v>
       </c>
       <c r="F83">
-        <v>20.75507603659723</v>
+        <v>14.17701508021028</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>5.532083330787208</v>
+        <v>3.604738399277019</v>
       </c>
       <c r="C84">
-        <v>31.02199935927186</v>
+        <v>2.41699105758497</v>
       </c>
       <c r="D84">
-        <v>42.71975359555061</v>
+        <v>2.232052456110698</v>
       </c>
       <c r="E84">
-        <v>14.52183172269375</v>
+        <v>11.39045874979922</v>
       </c>
       <c r="F84">
-        <v>20.78861434116952</v>
+        <v>14.20515648361459</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>5.475796037668962</v>
+        <v>3.569143844253106</v>
       </c>
       <c r="C85">
-        <v>31.00717713053052</v>
+        <v>2.405430381918524</v>
       </c>
       <c r="D85">
-        <v>42.70348986498035</v>
+        <v>2.223413522835667</v>
       </c>
       <c r="E85">
-        <v>14.52982226833101</v>
+        <v>11.40556242035389</v>
       </c>
       <c r="F85">
-        <v>20.80958734684205</v>
+        <v>14.22532002460373</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>5.398864091117174</v>
+        <v>3.528743582390951</v>
       </c>
       <c r="C86">
-        <v>30.93939856113175</v>
+        <v>2.393317888679824</v>
       </c>
       <c r="D86">
-        <v>42.62682434731477</v>
+        <v>2.213319821553996</v>
       </c>
       <c r="E86">
-        <v>14.49977000974698</v>
+        <v>11.41531450856594</v>
       </c>
       <c r="F86">
-        <v>20.74638149704567</v>
+        <v>14.23919818695584</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>5.321776418016432</v>
+        <v>3.484323314336394</v>
       </c>
       <c r="C87">
-        <v>30.87092770400361</v>
+        <v>2.380706697061625</v>
       </c>
       <c r="D87">
-        <v>42.54932002140756</v>
+        <v>2.201991389178466</v>
       </c>
       <c r="E87">
-        <v>14.46926064201805</v>
+        <v>11.42088103883312</v>
       </c>
       <c r="F87">
-        <v>20.68225281735583</v>
+        <v>14.24821957306385</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>5.244588210565986</v>
+        <v>3.436621432933454</v>
       </c>
       <c r="C88">
-        <v>30.80189248460586</v>
+        <v>2.36764694570014</v>
       </c>
       <c r="D88">
-        <v>42.47113152664889</v>
+        <v>2.189637242225572</v>
       </c>
       <c r="E88">
-        <v>14.43836129376678</v>
+        <v>11.42322205523638</v>
       </c>
       <c r="F88">
-        <v>20.61732284452594</v>
+        <v>14.25353774253002</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>5.16734650740065</v>
+        <v>3.386292289181192</v>
       </c>
       <c r="C89">
-        <v>30.73239942605476</v>
+        <v>2.354185533291771</v>
       </c>
       <c r="D89">
-        <v>42.39238729269851</v>
+        <v>2.176446667464828</v>
       </c>
       <c r="E89">
-        <v>14.40713024767329</v>
+        <v>11.42310105902859</v>
       </c>
       <c r="F89">
-        <v>20.55169863016507</v>
+        <v>14.25605588934083</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>5.090091190794611</v>
+        <v>3.333889636860708</v>
       </c>
       <c r="C90">
-        <v>30.66253639800887</v>
+        <v>2.340366015317445</v>
       </c>
       <c r="D90">
-        <v>42.31319377850581</v>
+        <v>2.162585101820061</v>
       </c>
       <c r="E90">
-        <v>14.37561794214049</v>
+        <v>11.42111115880783</v>
       </c>
       <c r="F90">
-        <v>20.48547404883827</v>
+        <v>14.25646695257616</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>5.012856053652836</v>
+        <v>3.279868952005202</v>
       </c>
       <c r="C91">
-        <v>30.59237555085553</v>
+        <v>2.326228609905421</v>
       </c>
       <c r="D91">
-        <v>42.2336386891033</v>
+        <v>2.148193358883519</v>
       </c>
       <c r="E91">
-        <v>14.34386793409755</v>
+        <v>11.41770607622406</v>
       </c>
       <c r="F91">
-        <v>20.41873104656679</v>
+        <v>14.25529552712472</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>4.935669630470949</v>
+        <v>3.224595653116359</v>
       </c>
       <c r="C92">
-        <v>30.52197656727069</v>
+        <v>2.311810279932985</v>
       </c>
       <c r="D92">
-        <v>42.15379430188614</v>
+        <v>2.133388958249538</v>
       </c>
       <c r="E92">
-        <v>14.31191760534657</v>
+        <v>11.41322966390502</v>
       </c>
       <c r="F92">
-        <v>20.35154113470283</v>
+        <v>14.25293576941023</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>4.858556033412374</v>
+        <v>3.168358666031259</v>
       </c>
       <c r="C93">
-        <v>30.45138882462896</v>
+        <v>2.297144865193923</v>
       </c>
       <c r="D93">
-        <v>42.0737204278537</v>
+        <v>2.118268575430227</v>
       </c>
       <c r="E93">
-        <v>14.279799127849</v>
+        <v>11.40794119883221</v>
       </c>
       <c r="F93">
-        <v>20.28396651937154</v>
+        <v>14.24968250576068</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>4.78153577561613</v>
+        <v>3.111384090191028</v>
       </c>
       <c r="C94">
-        <v>30.38065308748898</v>
+        <v>2.282263264899825</v>
       </c>
       <c r="D94">
-        <v>41.9934665017355</v>
+        <v>2.102910903765575</v>
       </c>
       <c r="E94">
-        <v>14.24754024479484</v>
+        <v>11.40203566721538</v>
       </c>
       <c r="F94">
-        <v>20.21606117473285</v>
+        <v>14.24575586751123</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>4.704626391858983</v>
+        <v>3.053847634530538</v>
       </c>
       <c r="C95">
-        <v>30.30980317617892</v>
+        <v>2.267193637497071</v>
       </c>
       <c r="D95">
-        <v>41.91307320719281</v>
+        <v>2.087379529156209</v>
       </c>
       <c r="E95">
-        <v>14.21516476044288</v>
+        <v>11.39565974318032</v>
       </c>
       <c r="F95">
-        <v>20.14787191387</v>
+        <v>14.24132027006823</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>4.627842968755925</v>
+        <v>2.995885372473877</v>
       </c>
       <c r="C96">
-        <v>30.23886731705374</v>
+        <v>2.251961601574697</v>
       </c>
       <c r="D96">
-        <v>41.83257410173734</v>
+        <v>2.071725590543605</v>
       </c>
       <c r="E96">
-        <v>14.18269312626696</v>
+        <v>11.3889238883117</v>
       </c>
       <c r="F96">
-        <v>20.0794394666014</v>
+        <v>14.23649868505198</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>4.551198637953236</v>
+        <v>2.937602604233438</v>
       </c>
       <c r="C97">
-        <v>30.16786908663666</v>
+        <v>2.236590430845166</v>
       </c>
       <c r="D97">
-        <v>41.75199712045316</v>
+        <v>2.055990088536475</v>
       </c>
       <c r="E97">
-        <v>14.15014291233277</v>
+        <v>11.38191151904076</v>
       </c>
       <c r="F97">
-        <v>20.01079919595744</v>
+        <v>14.23138333989717</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>4.474704980607419</v>
+        <v>2.879080913284546</v>
       </c>
       <c r="C98">
-        <v>30.09682812939409</v>
+        <v>2.22110124976781</v>
       </c>
       <c r="D98">
-        <v>41.67136553245508</v>
+        <v>2.040205821101596</v>
       </c>
       <c r="E98">
-        <v>14.11752919912556</v>
+        <v>11.37468583009779</v>
       </c>
       <c r="F98">
-        <v>19.94198176344704</v>
+        <v>14.22604357176725</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>4.398372349872091</v>
+        <v>2.820383629549931</v>
       </c>
       <c r="C99">
-        <v>30.0257608932846</v>
+        <v>2.205513223616306</v>
       </c>
       <c r="D99">
-        <v>41.59069862994548</v>
+        <v>2.024399016661139</v>
       </c>
       <c r="E99">
-        <v>14.084864952157</v>
+        <v>11.36729486916532</v>
       </c>
       <c r="F99">
-        <v>19.87301379882989</v>
+        <v>14.22053172615518</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>4.322210128033515</v>
+        <v>2.761560148424404</v>
       </c>
       <c r="C100">
-        <v>29.95468120721182</v>
+        <v>2.189843735984285</v>
       </c>
       <c r="D100">
-        <v>41.51001240147811</v>
+        <v>2.008590652979727</v>
       </c>
       <c r="E100">
-        <v>14.05216134648267</v>
+        <v>11.35977533070813</v>
       </c>
       <c r="F100">
-        <v>19.80391846516034</v>
+        <v>14.21488744367303</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>4.246226935310593</v>
+        <v>2.702649192144787</v>
       </c>
       <c r="C101">
-        <v>29.88360071054057</v>
+        <v>2.174108551808108</v>
       </c>
       <c r="D101">
-        <v>41.42932015140265</v>
+        <v>1.992797515596583</v>
       </c>
       <c r="E101">
-        <v>14.01942799671149</v>
+        <v>11.35215534680355</v>
       </c>
       <c r="F101">
-        <v>19.73471592541275</v>
+        <v>14.20914087051604</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>4.17043081005771</v>
+        <v>2.643681349274949</v>
       </c>
       <c r="C102">
-        <v>29.81252933482263</v>
+        <v>2.158321967592559</v>
       </c>
       <c r="D102">
-        <v>41.34863291635143</v>
+        <v>1.97703305635319</v>
       </c>
       <c r="E102">
-        <v>13.98667317444033</v>
+        <v>11.34445658691816</v>
       </c>
       <c r="F102">
-        <v>19.66542386530281</v>
+        <v>14.20331502307582</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>4.094829361458809</v>
+        <v>2.584680977887848</v>
       </c>
       <c r="C103">
-        <v>29.74147546616059</v>
+        <v>2.142496950072014</v>
       </c>
       <c r="D103">
-        <v>41.2679602463795</v>
+        <v>1.961308067323638</v>
       </c>
       <c r="E103">
-        <v>13.95390400204562</v>
+        <v>11.33669581665641</v>
       </c>
       <c r="F103">
-        <v>19.59605764783491</v>
+        <v>14.19742754000719</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>4.019429895139616</v>
+        <v>2.525667696551186</v>
       </c>
       <c r="C104">
-        <v>29.67044620889454</v>
+        <v>2.126645263144061</v>
       </c>
       <c r="D104">
-        <v>41.18731002738608</v>
+        <v>1.945631224275989</v>
       </c>
       <c r="E104">
-        <v>13.92112663539089</v>
+        <v>11.32888604799645</v>
       </c>
       <c r="F104">
-        <v>19.52663067271396</v>
+        <v>14.19149198584794</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>3.944239511156284</v>
+        <v>2.466657496336896</v>
       </c>
       <c r="C105">
-        <v>29.5994476090876</v>
+        <v>2.110777582952603</v>
       </c>
       <c r="D105">
-        <v>41.10668883704069</v>
+        <v>1.930009513783586</v>
       </c>
       <c r="E105">
-        <v>13.88834640022539</v>
+        <v>11.32103744514301</v>
       </c>
       <c r="F105">
-        <v>19.45715468755332</v>
+        <v>14.1855188338754</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>3.869265184884289</v>
+        <v>2.407663615802296</v>
       </c>
       <c r="C106">
-        <v>29.52848482309458</v>
+        <v>2.094903601881121</v>
       </c>
       <c r="D106">
-        <v>41.02610216056755</v>
+        <v>1.914448571409454</v>
       </c>
       <c r="E106">
-        <v>13.85556788996987</v>
+        <v>11.31315800513246</v>
       </c>
       <c r="F106">
-        <v>19.38764002415643</v>
+        <v>14.17951623829874</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>3.794513837584971</v>
+        <v>2.348697200825245</v>
       </c>
       <c r="C107">
-        <v>29.457562276051</v>
+        <v>2.079032122623843</v>
       </c>
       <c r="D107">
-        <v>40.94555464711593</v>
+        <v>1.898952953818381</v>
       </c>
       <c r="E107">
-        <v>13.82279512750598</v>
+        <v>11.30525402575481</v>
       </c>
       <c r="F107">
-        <v>19.31809576490862</v>
+        <v>14.17349056104636</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>3.71999239786314</v>
+        <v>2.289767825258072</v>
       </c>
       <c r="C108">
-        <v>29.38668378175231</v>
+        <v>2.06317114327194</v>
       </c>
       <c r="D108">
-        <v>40.86505027661342</v>
+        <v>1.883526349950291</v>
       </c>
       <c r="E108">
-        <v>13.79003156471471</v>
+        <v>11.29733046756328</v>
       </c>
       <c r="F108">
-        <v>19.24852989370815</v>
+        <v>14.16744675690956</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>3.645707855029752</v>
+        <v>2.230883886489465</v>
       </c>
       <c r="C109">
-        <v>29.31585262844096</v>
+        <v>2.047327934080469</v>
       </c>
       <c r="D109">
-        <v>40.78459245605482</v>
+        <v>1.868171749492377</v>
       </c>
       <c r="E109">
-        <v>13.75728020003642</v>
+        <v>11.2893912616253</v>
       </c>
       <c r="F109">
-        <v>19.17894944408572</v>
+        <v>14.16138869642958</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>3.571667305465192</v>
+        <v>2.172052929795936</v>
       </c>
       <c r="C110">
-        <v>29.24507165689706</v>
+        <v>2.031509106573878</v>
       </c>
       <c r="D110">
-        <v>40.7041840565582</v>
+        <v>1.852891582671886</v>
       </c>
       <c r="E110">
-        <v>13.72454364560607</v>
+        <v>11.2814395494127</v>
       </c>
       <c r="F110">
-        <v>19.109360618701</v>
+        <v>14.15531942888352</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>3.497877993755554</v>
+        <v>2.11328191194817</v>
       </c>
       <c r="C111">
-        <v>29.17434332795831</v>
+        <v>2.015720674252169</v>
       </c>
       <c r="D111">
-        <v>40.62382750397644</v>
+        <v>1.837687830801929</v>
       </c>
       <c r="E111">
-        <v>13.69182416933845</v>
+        <v>11.27347785216304</v>
       </c>
       <c r="F111">
-        <v>19.03976892468329</v>
+        <v>14.14924137265464</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>3.424347349897436</v>
+        <v>2.054577395409048</v>
       </c>
       <c r="C112">
-        <v>29.10366977434355</v>
+        <v>1.999968111121794</v>
       </c>
       <c r="D112">
-        <v>40.54352487008302</v>
+        <v>1.822562110489464</v>
       </c>
       <c r="E112">
-        <v>13.65912375065672</v>
+        <v>11.26550819503205</v>
       </c>
       <c r="F112">
-        <v>18.97017922625558</v>
+        <v>14.14315644814685</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>3.351083023889077</v>
+        <v>1.995945705838728</v>
       </c>
       <c r="C113">
-        <v>29.03305285507688</v>
+        <v>1.984256398328171</v>
       </c>
       <c r="D113">
-        <v>40.46327792778443</v>
+        <v>1.807515734706264</v>
       </c>
       <c r="E113">
-        <v>13.62644412576273</v>
+        <v>11.25753220532863</v>
       </c>
       <c r="F113">
-        <v>18.90059590690007</v>
+        <v>14.13706618035394</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>3.278092919344651</v>
+        <v>1.937393075603578</v>
       </c>
       <c r="C114">
-        <v>28.9624941956358</v>
+        <v>1.968590080202163</v>
       </c>
       <c r="D114">
-        <v>40.38308818759732</v>
+        <v>1.792549769715391</v>
       </c>
       <c r="E114">
-        <v>13.59378681451942</v>
+        <v>11.2495512018865</v>
       </c>
       <c r="F114">
-        <v>18.83102281535474</v>
+        <v>14.13097177664466</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>3.205385225306797</v>
+        <v>1.878925773141606</v>
       </c>
       <c r="C115">
-        <v>28.89199522008247</v>
+        <v>1.952973294665641</v>
       </c>
       <c r="D115">
-        <v>40.30295697426369</v>
+        <v>1.777665084294848</v>
       </c>
       <c r="E115">
-        <v>13.56115314492607</v>
+        <v>11.24156625195851</v>
       </c>
       <c r="F115">
-        <v>18.76146336990801</v>
+        <v>14.12487421019992</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>3.132968447182716</v>
+        <v>1.82055021422879</v>
       </c>
       <c r="C116">
-        <v>28.82155718112804</v>
+        <v>1.937409809173485</v>
       </c>
       <c r="D116">
-        <v>40.22288539598306</v>
+        <v>1.762862386233615</v>
       </c>
       <c r="E116">
-        <v>13.52854428622183</v>
+        <v>11.2335782420028</v>
       </c>
       <c r="F116">
-        <v>18.69192062113718</v>
+        <v>14.11877426709864</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>3.060851437399871</v>
+        <v>1.762273060306527</v>
       </c>
       <c r="C117">
-        <v>28.75118117943444</v>
+        <v>1.921903061463728</v>
       </c>
       <c r="D117">
-        <v>40.14287447239916</v>
+        <v>1.748142250067231</v>
       </c>
       <c r="E117">
-        <v>13.49596126475384</v>
+        <v>11.22558789845037</v>
       </c>
       <c r="F117">
-        <v>18.62239729925621</v>
+        <v>14.11267257249609</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>2.989043426230392</v>
+        <v>1.704101312822347</v>
       </c>
       <c r="C118">
-        <v>28.68086818612046</v>
+        <v>1.906456180920307</v>
       </c>
       <c r="D118">
-        <v>40.06292502450983</v>
+        <v>1.733505139411765</v>
       </c>
       <c r="E118">
-        <v>13.46340498373688</v>
+        <v>11.21759580871325</v>
       </c>
       <c r="F118">
-        <v>18.55289583403301</v>
+        <v>14.10656965954944</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>2.917554053139786</v>
+        <v>1.646042410924478</v>
       </c>
       <c r="C119">
-        <v>28.61061906096079</v>
+        <v>1.891072020078187</v>
       </c>
       <c r="D119">
-        <v>39.98303781828265</v>
+        <v>1.718951425833989</v>
       </c>
       <c r="E119">
-        <v>13.43087624112647</v>
+        <v>11.20960246051173</v>
       </c>
       <c r="F119">
-        <v>18.48341842666409</v>
+        <v>14.10046593642766</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>2.846393398940983</v>
+        <v>1.588104329486915</v>
       </c>
       <c r="C120">
-        <v>28.54043456689528</v>
+        <v>1.875753180299718</v>
       </c>
       <c r="D120">
-        <v>39.9032134639921</v>
+        <v>1.704481404379981</v>
       </c>
       <c r="E120">
-        <v>13.39837574503375</v>
+        <v>11.20160825262658</v>
       </c>
       <c r="F120">
-        <v>18.41396710821039</v>
+        <v>14.09436173765064</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>2.775572018896447</v>
+        <v>1.530295692831091</v>
       </c>
       <c r="C121">
-        <v>28.47031538389028</v>
+        <v>1.860502033380116</v>
       </c>
       <c r="D121">
-        <v>39.8234525167366</v>
+        <v>1.690095304904042</v>
       </c>
       <c r="E121">
-        <v>13.36590412145882</v>
+        <v>11.19361351422408</v>
       </c>
       <c r="F121">
-        <v>18.34454365055027</v>
+        <v>14.08825733625044</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>2.705100977957513</v>
+        <v>1.472625867089379</v>
       </c>
       <c r="C122">
-        <v>28.40026211802616</v>
+        <v>1.845320739005399</v>
       </c>
       <c r="D122">
-        <v>39.74375543469285</v>
+        <v>1.67579330735667</v>
       </c>
       <c r="E122">
-        <v>13.33346192643687</v>
+        <v>11.18561851975334</v>
       </c>
       <c r="F122">
-        <v>18.27514966242385</v>
+        <v>14.08215295204192</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>2.634991885039085</v>
+        <v>1.4151051265286</v>
       </c>
       <c r="C123">
-        <v>28.33027531105576</v>
+        <v>1.830211265454262</v>
       </c>
       <c r="D123">
-        <v>39.66412262451117</v>
+        <v>1.661575545215013</v>
       </c>
       <c r="E123">
-        <v>13.30104965655481</v>
+        <v>11.17762350231179</v>
       </c>
       <c r="F123">
-        <v>18.20578657100369</v>
+        <v>14.0760487661159</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>2.565256934654508</v>
+        <v>1.357744745693153</v>
       </c>
       <c r="C124">
-        <v>28.26035544711452</v>
+        <v>1.815175404808203</v>
       </c>
       <c r="D124">
-        <v>39.5845544400405</v>
+        <v>1.647442116900462</v>
       </c>
       <c r="E124">
-        <v>13.26866775291304</v>
+        <v>11.16962865606616</v>
       </c>
       <c r="F124">
-        <v>18.13645567181162</v>
+        <v>14.06994493141312</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>2.495908937533632</v>
+        <v>1.300557220741886</v>
       </c>
       <c r="C125">
-        <v>28.19050296519877</v>
+        <v>1.800214786137067</v>
       </c>
       <c r="D125">
-        <v>39.50505118767784</v>
+        <v>1.633393090373777</v>
       </c>
       <c r="E125">
-        <v>13.23631661010246</v>
+        <v>11.1616341433639</v>
       </c>
       <c r="F125">
-        <v>18.06715814297733</v>
+        <v>14.06384157313585</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>2.426961374979983</v>
+        <v>1.243556439226496</v>
       </c>
       <c r="C126">
-        <v>28.12071825539754</v>
+        <v>1.785330890690199</v>
       </c>
       <c r="D126">
-        <v>39.42561314873532</v>
+        <v>1.619428499832894</v>
       </c>
       <c r="E126">
-        <v>13.2039965826084</v>
+        <v>11.15364010186507</v>
       </c>
       <c r="F126">
-        <v>17.99789505941375</v>
+        <v>14.05773879388237</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>2.358428430876755</v>
+        <v>1.186757872591117</v>
       </c>
       <c r="C127">
-        <v>28.05100168054455</v>
+        <v>1.770525064547443</v>
       </c>
       <c r="D127">
-        <v>39.34624055459055</v>
+        <v>1.605548362665141</v>
       </c>
       <c r="E127">
-        <v>13.17170798839661</v>
+        <v>11.14564664619379</v>
       </c>
       <c r="F127">
-        <v>17.92866740340828</v>
+        <v>14.05163668017844</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>2.290325047500791</v>
+        <v>1.130178912510736</v>
       </c>
       <c r="C128">
-        <v>27.98135355863474</v>
+        <v>1.755798527905408</v>
       </c>
       <c r="D128">
-        <v>39.26693362571294</v>
+        <v>1.591752668594078</v>
       </c>
       <c r="E128">
-        <v>13.13945111377179</v>
+        <v>11.13765387361633</v>
       </c>
       <c r="F128">
-        <v>17.85947606170155</v>
+        <v>14.0455353015323</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>2.222666974141045</v>
+        <v>1.07383918496008</v>
       </c>
       <c r="C129">
-        <v>27.91177419071925</v>
+        <v>1.741152385966634</v>
       </c>
       <c r="D129">
-        <v>39.18769253846369</v>
+        <v>1.578041392582561</v>
       </c>
       <c r="E129">
-        <v>13.10722621797303</v>
+        <v>11.129661866725</v>
       </c>
       <c r="F129">
-        <v>17.79032184321858</v>
+        <v>14.0394347162331</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>2.155470810321694</v>
+        <v>1.017760945962593</v>
       </c>
       <c r="C130">
-        <v>27.8422638400929</v>
+        <v>1.726587639337658</v>
       </c>
       <c r="D130">
-        <v>39.10851745635698</v>
+        <v>1.564414493060791</v>
       </c>
       <c r="E130">
-        <v>13.07503353527838</v>
+        <v>11.12167069667778</v>
       </c>
       <c r="F130">
-        <v>17.72120547905182</v>
+        <v>14.03333497301628</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>2.088754075087325</v>
+        <v>0.961969536883157</v>
       </c>
       <c r="C131">
-        <v>27.77282275550575</v>
+        <v>1.712105189966675</v>
       </c>
       <c r="D131">
-        <v>39.02940851569356</v>
+        <v>1.550871914963484</v>
       </c>
       <c r="E131">
-        <v>13.04287327832935</v>
+        <v>11.11368042391624</v>
       </c>
       <c r="F131">
-        <v>17.65212763856568</v>
+        <v>14.02723611309777</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>2.022535249882359</v>
+        <v>0.9064939785722632</v>
       </c>
       <c r="C132">
-        <v>27.70345115856777</v>
+        <v>1.697705849919976</v>
       </c>
       <c r="D132">
-        <v>38.95036583665376</v>
+        <v>1.537413592428019</v>
       </c>
       <c r="E132">
-        <v>13.01074564029534</v>
+        <v>11.10569110018142</v>
       </c>
       <c r="F132">
-        <v>17.58308893321929</v>
+        <v>14.02113817077927</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>1.956833851117178</v>
+        <v>0.8513677044398335</v>
       </c>
       <c r="C133">
-        <v>27.63414925644437</v>
+        <v>1.683390348979664</v>
       </c>
       <c r="D133">
-        <v>38.8713895244161</v>
+        <v>1.52403944719227</v>
       </c>
       <c r="E133">
-        <v>12.97865079806693</v>
+        <v>11.09770277014431</v>
       </c>
       <c r="F133">
-        <v>17.51408992240358</v>
+        <v>14.01504117551202</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>1.891670489907233</v>
+        <v>0.7966294362465358</v>
       </c>
       <c r="C134">
-        <v>27.56491723803095</v>
+        <v>1.669159339489723</v>
       </c>
       <c r="D134">
-        <v>38.7924796708213</v>
+        <v>1.510749393133587</v>
       </c>
       <c r="E134">
-        <v>12.94658891397396</v>
+        <v>11.08971547180927</v>
       </c>
       <c r="F134">
-        <v>17.44513111596386</v>
+        <v>14.00894515162795</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>1.827066933720925</v>
+        <v>0.7423244220835801</v>
       </c>
       <c r="C135">
-        <v>27.49575527946114</v>
+        <v>1.655013401359052</v>
       </c>
       <c r="D135">
-        <v>38.71363635593733</v>
+        <v>1.497543333274401</v>
       </c>
       <c r="E135">
-        <v>12.91456013558272</v>
+        <v>11.08172923779766</v>
       </c>
       <c r="F135">
-        <v>17.3762129980887</v>
+        <v>14.00285011960281</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>1.763046189385482</v>
+        <v>0.6885058246042096</v>
       </c>
       <c r="C136">
-        <v>27.42666354310406</v>
+        <v>1.640953052716183</v>
       </c>
       <c r="D136">
-        <v>38.63485965146656</v>
+        <v>1.484421163396456</v>
       </c>
       <c r="E136">
-        <v>12.88256460376338</v>
+        <v>11.07374409712247</v>
       </c>
       <c r="F136">
-        <v>17.30733597853749</v>
+        <v>13.9967560967937</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>1.699632558179663</v>
+        <v>0.6352365276786759</v>
       </c>
       <c r="C137">
-        <v>27.35764218146513</v>
+        <v>1.626978745287273</v>
       </c>
       <c r="D137">
-        <v>38.55614961747953</v>
+        <v>1.471382770990578</v>
       </c>
       <c r="E137">
-        <v>12.85060244182218</v>
+        <v>11.06576007354973</v>
       </c>
       <c r="F137">
-        <v>17.23850047684608</v>
+        <v>13.99066309789959</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>1.63685172604046</v>
+        <v>0.5825915232686107</v>
       </c>
       <c r="C138">
-        <v>27.28869133533775</v>
+        <v>1.613090881534507</v>
       </c>
       <c r="D138">
-        <v>38.47750630841087</v>
+        <v>1.458428036674766</v>
       </c>
       <c r="E138">
-        <v>12.81867377243775</v>
+        <v>11.05777719018699</v>
       </c>
       <c r="F138">
-        <v>17.16970686733515</v>
+        <v>13.98457113543977</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>1.57473082863159</v>
+        <v>0.5306609989329137</v>
       </c>
       <c r="C139">
-        <v>27.21981113796577</v>
+        <v>1.599289807597568</v>
       </c>
       <c r="D139">
-        <v>38.39892976889102</v>
+        <v>1.445556834602814</v>
       </c>
       <c r="E139">
-        <v>12.7867787019528</v>
+        <v>11.04979546482945</v>
       </c>
       <c r="F139">
-        <v>17.10095546981609</v>
+        <v>13.97848022018913</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>1.513298531367022</v>
+        <v>0.4795542656895546</v>
       </c>
       <c r="C140">
-        <v>27.15100171281088</v>
+        <v>1.585575821161074</v>
       </c>
       <c r="D140">
-        <v>38.32042003850623</v>
+        <v>1.432769032606967</v>
       </c>
       <c r="E140">
-        <v>12.75491733513632</v>
+        <v>11.04181491520612</v>
       </c>
       <c r="F140">
-        <v>17.03224662428358</v>
+        <v>13.97239036132765</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>1.452585107069954</v>
+        <v>0.4294051508919148</v>
       </c>
       <c r="C141">
-        <v>27.08226317706533</v>
+        <v>1.571949178431938</v>
       </c>
       <c r="D141">
-        <v>38.2419771500756</v>
+        <v>1.420064493002281</v>
       </c>
       <c r="E141">
-        <v>12.7230897675135</v>
+        <v>11.03383555582209</v>
       </c>
       <c r="F141">
-        <v>16.96358060443973</v>
+        <v>13.96630156648294</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>1.392622506551842</v>
+        <v>0.3803787865606776</v>
       </c>
       <c r="C142">
-        <v>27.01359564037176</v>
+        <v>1.558410087015053</v>
       </c>
       <c r="D142">
-        <v>38.16360113171222</v>
+        <v>1.407443072283908</v>
       </c>
       <c r="E142">
-        <v>12.69129608856297</v>
+        <v>11.02585739941403</v>
       </c>
       <c r="F142">
-        <v>16.89495768348952</v>
+        <v>13.96021384274805</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>1.333444432979419</v>
+        <v>0.3326805013649836</v>
       </c>
       <c r="C143">
-        <v>26.94499920693198</v>
+        <v>1.544958721880417</v>
       </c>
       <c r="D143">
-        <v>38.08529200706991</v>
+        <v>1.394904621809585</v>
       </c>
       <c r="E143">
-        <v>12.65953638357377</v>
+        <v>11.0178804577284</v>
       </c>
       <c r="F143">
-        <v>16.82637811333348</v>
+        <v>13.95412719537428</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>1.275086404187331</v>
+        <v>0.2865673978431875</v>
       </c>
       <c r="C144">
-        <v>26.87647397528935</v>
+        <v>1.531595215390613</v>
       </c>
       <c r="D144">
-        <v>38.00704979575636</v>
+        <v>1.382448987702699</v>
       </c>
       <c r="E144">
-        <v>12.6278107323438</v>
+        <v>11.00990474042369</v>
       </c>
       <c r="F144">
-        <v>16.75784211666045</v>
+        <v>13.94804163004341</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>1.217585818113355</v>
+        <v>0.2423625225775403</v>
       </c>
       <c r="C145">
-        <v>26.80802003937193</v>
+        <v>1.518319670365188</v>
       </c>
       <c r="D145">
-        <v>37.92887451413672</v>
+        <v>1.37007601111426</v>
       </c>
       <c r="E145">
-        <v>12.59611921151361</v>
+        <v>11.00193025660257</v>
       </c>
       <c r="F145">
-        <v>16.68934990781822</v>
+        <v>13.94195715083165</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>1.160981973713792</v>
+        <v>0.2004709614865033</v>
       </c>
       <c r="C146">
-        <v>26.73963748867596</v>
+        <v>1.505132154540332</v>
       </c>
       <c r="D146">
-        <v>37.85076617514306</v>
+        <v>1.357785528474166</v>
       </c>
       <c r="E146">
-        <v>12.56446189308862</v>
+        <v>10.99395701408269</v>
       </c>
       <c r="F146">
-        <v>16.62090168364017</v>
+        <v>13.9358737617056</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>1.105316146808474</v>
+        <v>0.1613946330585308</v>
       </c>
       <c r="C147">
-        <v>26.67132640889912</v>
+        <v>1.492032708930728</v>
       </c>
       <c r="D147">
-        <v>37.77272478917658</v>
+        <v>1.345577371512267</v>
       </c>
       <c r="E147">
-        <v>12.53283884717668</v>
+        <v>10.98598502009393</v>
       </c>
       <c r="F147">
-        <v>16.55249762781814</v>
+        <v>13.92979146621581</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>1.050631538698656</v>
+        <v>0.1257363462952916</v>
       </c>
       <c r="C148">
-        <v>26.60308688209439</v>
+        <v>1.479021344523021</v>
       </c>
       <c r="D148">
-        <v>37.69475036371938</v>
+        <v>1.333451367496782</v>
       </c>
       <c r="E148">
-        <v>12.50125013960272</v>
+        <v>10.9780142809685</v>
       </c>
       <c r="F148">
-        <v>16.48413791220648</v>
+        <v>13.92371026699325</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.9969733142126848</v>
+        <v>0.09417463950403149</v>
       </c>
       <c r="C149">
-        <v>26.53491898720188</v>
+        <v>1.466098048301482</v>
       </c>
       <c r="D149">
-        <v>37.61684290422688</v>
+        <v>1.321407339282361</v>
       </c>
       <c r="E149">
-        <v>12.46969583464947</v>
+        <v>10.97004480278076</v>
       </c>
       <c r="F149">
-        <v>16.41582269575165</v>
+        <v>13.91763016683286</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.9443885310965722</v>
+        <v>0.06737782461175963</v>
       </c>
       <c r="C150">
-        <v>26.46682280015989</v>
+        <v>1.453262782303035</v>
       </c>
       <c r="D150">
-        <v>37.53900241384397</v>
+        <v>1.309445105425936</v>
       </c>
       <c r="E150">
-        <v>12.43817599379098</v>
+        <v>10.96207659063948</v>
       </c>
       <c r="F150">
-        <v>16.34755213136277</v>
+        <v>13.91155116778728</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.8929260501270951</v>
+        <v>0.04583285584420883</v>
       </c>
       <c r="C151">
-        <v>26.39879839433117</v>
+        <v>1.440515485456738</v>
       </c>
       <c r="D151">
-        <v>37.46122889402716</v>
+        <v>1.297564480287688</v>
       </c>
       <c r="E151">
-        <v>12.40669067609583</v>
+        <v>10.95410964965235</v>
       </c>
       <c r="F151">
-        <v>16.27932635868164</v>
+        <v>13.90547327187679</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.842636370632256</v>
+        <v>0.02961968633233867</v>
       </c>
       <c r="C152">
-        <v>26.33084584066808</v>
+        <v>1.427856076667803</v>
       </c>
       <c r="D152">
-        <v>37.38352234448482</v>
+        <v>1.285765274038077</v>
       </c>
       <c r="E152">
-        <v>12.37523993923358</v>
+        <v>10.94614398413983</v>
       </c>
       <c r="F152">
-        <v>16.21114550899825</v>
+        <v>13.89939648080875</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.7935714256005595</v>
+        <v>0.01826797239625778</v>
       </c>
       <c r="C153">
-        <v>26.26296520797519</v>
+        <v>1.415284452968572</v>
       </c>
       <c r="D153">
-        <v>37.30588276358341</v>
+        <v>1.274047292819304</v>
       </c>
       <c r="E153">
-        <v>12.34382383855087</v>
+        <v>10.93817959824171</v>
       </c>
       <c r="F153">
-        <v>16.14300970893828</v>
+        <v>13.89332079615791</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.7457843463638614</v>
+        <v>0.0108488047618192</v>
       </c>
       <c r="C154">
-        <v>26.19515656315611</v>
+        <v>1.402800494556518</v>
       </c>
       <c r="D154">
-        <v>37.22831014825301</v>
+        <v>1.262410338721642</v>
       </c>
       <c r="E154">
-        <v>12.3124424283084</v>
+        <v>10.93021649570739</v>
       </c>
       <c r="F154">
-        <v>16.07491907134056</v>
+        <v>13.88724621930383</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.6993291043451039</v>
+        <v>0.006269279046024595</v>
       </c>
       <c r="C155">
-        <v>26.12741997131073</v>
+        <v>1.390404062103888</v>
       </c>
       <c r="D155">
-        <v>37.15080449442626</v>
+        <v>1.250854209896875</v>
       </c>
       <c r="E155">
-        <v>12.28109576102104</v>
+        <v>10.92225467996479</v>
       </c>
       <c r="F155">
-        <v>16.00687370705924</v>
+        <v>13.8811727515517</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.6542600621256032</v>
+        <v>0.00355841540045244</v>
       </c>
       <c r="C156">
-        <v>26.05975549604107</v>
+        <v>1.378095001353976</v>
       </c>
       <c r="D156">
-        <v>37.07336579679093</v>
+        <v>1.23937870059772</v>
       </c>
       <c r="E156">
-        <v>12.24978388825229</v>
+        <v>10.91429415423458</v>
       </c>
       <c r="F156">
-        <v>15.93887371841437</v>
+        <v>13.87510039408672</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.6106314193166635</v>
+        <v>0.001997596147965989</v>
       </c>
       <c r="C157">
-        <v>25.99216319942818</v>
+        <v>1.365873140981267</v>
       </c>
       <c r="D157">
-        <v>36.99599404925826</v>
+        <v>1.227983601285215</v>
       </c>
       <c r="E157">
-        <v>12.21850686021663</v>
+        <v>10.90633492149873</v>
       </c>
       <c r="F157">
-        <v>15.87091920120859</v>
+        <v>13.86902914793668</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.5684965756074841</v>
+        <v>0.001114175291639641</v>
       </c>
       <c r="C158">
-        <v>25.92464314236208</v>
+        <v>1.353738296295451</v>
       </c>
       <c r="D158">
-        <v>36.91868924472543</v>
+        <v>1.216668698521113</v>
       </c>
       <c r="E158">
-        <v>12.18726472629629</v>
+        <v>10.89837698456886</v>
       </c>
       <c r="F158">
-        <v>15.80301024666668</v>
+        <v>13.86295901414077</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.5279073484431568</v>
+        <v>0.0006192129981254486</v>
       </c>
       <c r="C159">
-        <v>25.85719538446125</v>
+        <v>1.34169026787072</v>
       </c>
       <c r="D159">
-        <v>36.84145137540385</v>
+        <v>1.205433775272564</v>
       </c>
       <c r="E159">
-        <v>12.15605753493083</v>
+        <v>10.89042034607233</v>
       </c>
       <c r="F159">
-        <v>15.7351469405714</v>
+        <v>13.85688999353645</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.4889131030841263</v>
+        <v>0.0003434618276410959</v>
       </c>
       <c r="C160">
-        <v>25.78981998438891</v>
+        <v>1.329728843813575</v>
       </c>
       <c r="D160">
-        <v>36.76428043270813</v>
+        <v>1.194278610769155</v>
       </c>
       <c r="E160">
-        <v>12.12488533363891</v>
+        <v>10.88246500854026</v>
       </c>
       <c r="F160">
-        <v>15.66732936446799</v>
+        <v>13.8508220869822</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.4515597715172883</v>
+        <v>0.0001903268341126776</v>
       </c>
       <c r="C161">
-        <v>25.72251699976401</v>
+        <v>1.317853799875074</v>
       </c>
       <c r="D161">
-        <v>36.68717640761174</v>
+        <v>1.183202980488425</v>
       </c>
       <c r="E161">
-        <v>12.09374816940551</v>
+        <v>10.87451097430309</v>
       </c>
       <c r="F161">
-        <v>15.5995575955505</v>
+        <v>13.84475529521886</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.4158887799667668</v>
+        <v>0.00010543572141049</v>
       </c>
       <c r="C162">
-        <v>25.65528648744113</v>
+        <v>1.306064899967335</v>
       </c>
       <c r="D162">
-        <v>36.61013929040482</v>
+        <v>1.172206656472845</v>
       </c>
       <c r="E162">
-        <v>12.06264608828813</v>
+        <v>10.86655824565814</v>
       </c>
       <c r="F162">
-        <v>15.53183170690338</v>
+        <v>13.83868961895312</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.3819359114708209</v>
+        <v>5.84166410679076E-05</v>
       </c>
       <c r="C163">
-        <v>25.58812850342818</v>
+        <v>1.294361897631823</v>
       </c>
       <c r="D163">
-        <v>36.53316907082519</v>
+        <v>1.161289407062538</v>
       </c>
       <c r="E163">
-        <v>12.03157913598605</v>
+        <v>10.85860682471779</v>
       </c>
       <c r="F163">
-        <v>15.46415176907837</v>
+        <v>13.83262505884442</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.3497301517268269</v>
+        <v>3.238739496118529E-05</v>
       </c>
       <c r="C164">
-        <v>25.521043103129</v>
+        <v>1.282744535385819</v>
       </c>
       <c r="D164">
-        <v>36.45626573854538</v>
+        <v>1.150450997108213</v>
       </c>
       <c r="E164">
-        <v>12.00054735745122</v>
+        <v>10.8506567135594</v>
       </c>
       <c r="F164">
-        <v>15.39651784768876</v>
+        <v>13.82656161551603</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.3192925301202478</v>
+        <v>1.798461203005208E-05</v>
       </c>
       <c r="C165">
-        <v>25.45403034126347</v>
+        <v>1.27121254677652</v>
       </c>
       <c r="D165">
-        <v>36.37942928247889</v>
+        <v>1.139691188010957</v>
       </c>
       <c r="E165">
-        <v>11.96955079729461</v>
+        <v>10.84270791414227</v>
       </c>
       <c r="F165">
-        <v>15.32893000667379</v>
+        <v>13.82049928955752</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.2906350560042837</v>
+        <v>1.000861046729856E-05</v>
       </c>
       <c r="C166">
-        <v>25.38709027208182</v>
+        <v>1.25976565538634</v>
       </c>
       <c r="D166">
-        <v>36.30265969122998</v>
+        <v>1.129009737662895</v>
       </c>
       <c r="E166">
-        <v>11.93858949961019</v>
+        <v>10.83476042836176</v>
       </c>
       <c r="F166">
-        <v>15.26138830682736</v>
+        <v>13.81443808153189</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.2637597773453572</v>
+        <v>5.591276723447227E-06</v>
       </c>
       <c r="C167">
-        <v>25.32022294928531</v>
+        <v>1.248403576820635</v>
       </c>
       <c r="D167">
-        <v>36.22595695347677</v>
+        <v>1.118406400592496</v>
       </c>
       <c r="E167">
-        <v>11.90766350813067</v>
+        <v>10.82681425804664</v>
       </c>
       <c r="F167">
-        <v>15.1938928054696</v>
+        <v>13.80837799198792</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.2386580565077898</v>
+        <v>3.144781895867981E-06</v>
       </c>
       <c r="C168">
-        <v>25.25342842621454</v>
+        <v>1.237126017797224</v>
       </c>
       <c r="D168">
-        <v>36.14932105716311</v>
+        <v>1.107880927953133</v>
       </c>
       <c r="E168">
-        <v>11.87677286625175</v>
+        <v>10.81886940496765</v>
       </c>
       <c r="F168">
-        <v>15.12644355852237</v>
+        <v>13.80231902143124</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.2153101645412273</v>
+        <v>1.785470097285865E-06</v>
       </c>
       <c r="C169">
-        <v>25.18670675578009</v>
+        <v>1.225932677834088</v>
       </c>
       <c r="D169">
-        <v>36.07275199016301</v>
+        <v>1.097433067577421</v>
       </c>
       <c r="E169">
-        <v>11.84591761702</v>
+        <v>10.81092587084624</v>
       </c>
       <c r="F169">
-        <v>15.05904061898795</v>
+        <v>13.79626117037376</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.1936850744067334</v>
+        <v>1.029744871846579E-06</v>
       </c>
       <c r="C170">
-        <v>25.12005799061865</v>
+        <v>1.214823248327375</v>
       </c>
       <c r="D170">
-        <v>35.99624974031207</v>
+        <v>1.087062564011908</v>
       </c>
       <c r="E170">
-        <v>11.81509780326989</v>
+        <v>10.80298365735589</v>
       </c>
       <c r="F170">
-        <v>14.99168403802949</v>
+        <v>13.7902044392846</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.1737406484735501</v>
+        <v>6.084116388367526E-07</v>
       </c>
       <c r="C171">
-        <v>25.0534821830429</v>
+        <v>1.203797414158249</v>
       </c>
       <c r="D171">
-        <v>35.91981429496816</v>
+        <v>1.076769158568817</v>
       </c>
       <c r="E171">
-        <v>11.78431346750295</v>
+        <v>10.79504276613744</v>
       </c>
       <c r="F171">
-        <v>14.92437386498741</v>
+        <v>13.78414882863328</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.1554242108567236</v>
+        <v>3.718721162994475E-07</v>
       </c>
       <c r="C172">
-        <v>24.9869793851649</v>
+        <v>1.19285485423336</v>
       </c>
       <c r="D172">
-        <v>35.84344564150212</v>
+        <v>1.066552589358898</v>
       </c>
       <c r="E172">
-        <v>11.75356465209098</v>
+        <v>10.78710319878271</v>
       </c>
       <c r="F172">
-        <v>14.85711014727634</v>
+        <v>13.77809433886798</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.1386734490238582</v>
+        <v>2.381642925404227E-07</v>
       </c>
       <c r="C173">
-        <v>24.92054964886233</v>
+        <v>1.181995240464025</v>
       </c>
       <c r="D173">
-        <v>35.76714376716914</v>
+        <v>1.056412591334436</v>
       </c>
       <c r="E173">
-        <v>11.7228513991205</v>
+        <v>10.77916495686563</v>
       </c>
       <c r="F173">
-        <v>14.78989293100721</v>
+        <v>13.77204097042466</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.1234176133403389</v>
+        <v>1.613712356039017E-07</v>
       </c>
       <c r="C174">
-        <v>24.8541930258724</v>
+        <v>1.171218237924032</v>
       </c>
       <c r="D174">
-        <v>35.69090865899853</v>
+        <v>1.04634889632498</v>
       </c>
       <c r="E174">
-        <v>11.69217375057219</v>
+        <v>10.77122804191501</v>
       </c>
       <c r="F174">
-        <v>14.72272226062367</v>
+        <v>13.76598872372983</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.1095789530870387</v>
+        <v>1.165377642322532E-07</v>
       </c>
       <c r="C175">
-        <v>24.78790956774915</v>
+        <v>1.160523508750981</v>
       </c>
       <c r="D175">
-        <v>35.61474030403906</v>
+        <v>1.036361233088502</v>
       </c>
       <c r="E175">
-        <v>11.66153174823727</v>
+        <v>10.76329245544505</v>
       </c>
       <c r="F175">
-        <v>14.65559817935001</v>
+        <v>13.75993759920139</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.09707432775974148</v>
+        <v>8.964538996158737E-08</v>
       </c>
       <c r="C176">
-        <v>24.72169932601244</v>
+        <v>1.149910709336026</v>
       </c>
       <c r="D176">
-        <v>35.53863868925737</v>
+        <v>1.026449327344962</v>
       </c>
       <c r="E176">
-        <v>11.63092543377501</v>
+        <v>10.75535819893695</v>
       </c>
       <c r="F176">
-        <v>14.58852072937145</v>
+        <v>13.75388759724934</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>0.08581689500068325</v>
+        <v>7.280729193998533E-08</v>
       </c>
       <c r="C177">
-        <v>24.65556235209489</v>
+        <v>1.139379487049131</v>
       </c>
       <c r="D177">
-        <v>35.46260380148758</v>
+        <v>1.016612901818947</v>
       </c>
       <c r="E177">
-        <v>11.60035484874148</v>
+        <v>10.74742527385571</v>
       </c>
       <c r="F177">
-        <v>14.52148995136535</v>
+        <v>13.74783871827592</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.0757177809361155</v>
+        <v>6.174998747179625E-08</v>
       </c>
       <c r="C178">
-        <v>24.58949869727241</v>
+        <v>1.128929489525682</v>
       </c>
       <c r="D178">
-        <v>35.38663562763474</v>
+        <v>1.006851676281205</v>
       </c>
       <c r="E178">
-        <v>11.56982003457035</v>
+        <v>10.73949368164432</v>
       </c>
       <c r="F178">
-        <v>14.45450588546013</v>
+        <v>13.74179096268077</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.06668767946903652</v>
+        <v>5.412612408531809E-08</v>
       </c>
       <c r="C179">
-        <v>24.52350841297955</v>
+        <v>1.11856035886985</v>
       </c>
       <c r="D179">
-        <v>35.31073415456132</v>
+        <v>0.9971653676069613</v>
       </c>
       <c r="E179">
-        <v>11.53932103263105</v>
+        <v>10.73156342373023</v>
       </c>
       <c r="F179">
-        <v>14.38756857064</v>
+        <v>13.73574433085289</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.05863830272861464</v>
+        <v>4.864243471393557E-08</v>
       </c>
       <c r="C180">
-        <v>24.4575915505844</v>
+        <v>1.108271730496841</v>
       </c>
       <c r="D180">
-        <v>35.23489936902097</v>
+        <v>0.9875536897910967</v>
       </c>
       <c r="E180">
-        <v>11.50885788416725</v>
+        <v>10.72363450152498</v>
       </c>
       <c r="F180">
-        <v>14.32067804503475</v>
+        <v>13.72969882318152</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.05148362595340526</v>
+        <v>4.462693410002351E-08</v>
       </c>
       <c r="C181">
-        <v>24.39174816132581</v>
+        <v>1.098063237246065</v>
       </c>
       <c r="D181">
-        <v>35.15913125789723</v>
+        <v>0.9780163540137954</v>
       </c>
       <c r="E181">
-        <v>11.47843063042669</v>
+        <v>10.71570691642669</v>
       </c>
       <c r="F181">
-        <v>14.25383434623085</v>
+        <v>13.72365444004821</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.04514092228452148</v>
+        <v>4.11887248076668E-08</v>
       </c>
       <c r="C182">
-        <v>24.32597829671032</v>
+        <v>1.08793450896902</v>
       </c>
       <c r="D182">
-        <v>35.08342980804358</v>
+        <v>0.9685530686898731</v>
       </c>
       <c r="E182">
-        <v>11.44803931261925</v>
+        <v>10.70778066982216</v>
       </c>
       <c r="F182">
-        <v>14.18703751093072</v>
+        <v>13.71761118183109</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.03953157143729363</v>
+        <v>3.815547284553691E-08</v>
       </c>
       <c r="C183">
-        <v>24.26028200820481</v>
+        <v>1.077885170981249</v>
       </c>
       <c r="D183">
-        <v>35.00779500626316</v>
+        <v>0.9591635394852402</v>
       </c>
       <c r="E183">
-        <v>11.41768397180318</v>
+        <v>10.69985576308518</v>
       </c>
       <c r="F183">
-        <v>14.12028757545042</v>
+        <v>13.71156904890522</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.03458164657923701</v>
+        <v>3.546418417497885E-08</v>
       </c>
       <c r="C184">
-        <v>24.19465934723882</v>
+        <v>1.067914844412641</v>
       </c>
       <c r="D184">
-        <v>34.93222683948458</v>
+        <v>0.9498474693955657</v>
       </c>
       <c r="E184">
-        <v>11.38736464909</v>
+        <v>10.69193219758228</v>
       </c>
       <c r="F184">
-        <v>14.05358457552937</v>
+        <v>13.70552804164174</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.03022228436675789</v>
+        <v>3.297886565192308E-08</v>
       </c>
       <c r="C185">
-        <v>24.12911036549298</v>
+        <v>1.058023148562816</v>
       </c>
       <c r="D185">
-        <v>34.8567252946369</v>
+        <v>0.9406045587706824</v>
       </c>
       <c r="E185">
-        <v>11.35708138563188</v>
+        <v>10.68400997466806</v>
       </c>
       <c r="F185">
-        <v>13.9869285464413</v>
+        <v>13.69948816040945</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.02638988025845429</v>
+        <v>3.058091189506555E-08</v>
       </c>
       <c r="C186">
-        <v>24.06363511467861</v>
+        <v>1.048209699270946</v>
       </c>
       <c r="D186">
-        <v>34.78129035866786</v>
+        <v>0.9314345053611511</v>
       </c>
       <c r="E186">
-        <v>11.32683422250765</v>
+        <v>10.67608909569173</v>
       </c>
       <c r="F186">
-        <v>13.92031952319847</v>
+        <v>13.69344940557473</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.02302612971938366</v>
+        <v>2.815268498480233E-08</v>
       </c>
       <c r="C187">
-        <v>23.99823364657657</v>
+        <v>1.038474108710058</v>
       </c>
       <c r="D187">
-        <v>34.70592201862397</v>
+        <v>0.9223370043836663</v>
       </c>
       <c r="E187">
-        <v>11.29662320065142</v>
+        <v>10.66816956199321</v>
       </c>
       <c r="F187">
-        <v>13.85375754035574</v>
+        <v>13.68741177750201</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.02007794321107506</v>
+        <v>2.556603120823132E-08</v>
       </c>
       <c r="C188">
-        <v>23.93290601317163</v>
+        <v>1.028815987340398</v>
       </c>
       <c r="D188">
-        <v>34.6306202615927</v>
+        <v>0.9133117485392668</v>
       </c>
       <c r="E188">
-        <v>11.26644836122546</v>
+        <v>10.66025137490758</v>
       </c>
       <c r="F188">
-        <v>13.78724263236049</v>
+        <v>13.68137527655342</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.01749727046874937</v>
+        <v>2.336198242651629E-08</v>
       </c>
       <c r="C189">
-        <v>23.8676522665561</v>
+        <v>1.019234942914911</v>
       </c>
       <c r="D189">
-        <v>34.55538507472409</v>
+        <v>0.9043584280818511</v>
       </c>
       <c r="E189">
-        <v>11.2363097453462</v>
+        <v>10.65233453576309</v>
       </c>
       <c r="F189">
-        <v>13.72077483341711</v>
+        <v>13.67533990309022</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.01524084688520511</v>
+        <v>2.147302164189451E-08</v>
       </c>
       <c r="C190">
-        <v>23.80247245896144</v>
+        <v>1.0097305802634</v>
       </c>
       <c r="D190">
-        <v>34.48021644526369</v>
+        <v>0.8954767308622833</v>
       </c>
       <c r="E190">
-        <v>11.20620739396542</v>
+        <v>10.64441904588398</v>
       </c>
       <c r="F190">
-        <v>13.65435417751951</v>
+        <v>13.66930565747151</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.01326990434268501</v>
+        <v>1.921822570485858E-08</v>
       </c>
       <c r="C191">
-        <v>23.73736664282021</v>
+        <v>1.000302502314014</v>
       </c>
       <c r="D191">
-        <v>34.40511436052205</v>
+        <v>0.8866663423616963</v>
       </c>
       <c r="E191">
-        <v>11.17614134821736</v>
+        <v>10.6365049065893</v>
       </c>
       <c r="F191">
-        <v>13.58798069868459</v>
+        <v>13.66327254005534</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.01154984207753352</v>
+        <v>1.321429217454796E-08</v>
       </c>
       <c r="C192">
-        <v>23.67233487071751</v>
+        <v>0.9909503102268112</v>
       </c>
       <c r="D192">
-        <v>34.33007880789749</v>
+        <v>0.8779269457648967</v>
       </c>
       <c r="E192">
-        <v>11.14611164923272</v>
+        <v>10.62859211919469</v>
       </c>
       <c r="F192">
-        <v>13.52165443076872</v>
+        <v>13.65724055119863</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.01004989034080071</v>
+        <v>1.429795872916329E-08</v>
       </c>
       <c r="C193">
-        <v>23.60737719541381</v>
+        <v>0.9816736028401629</v>
       </c>
       <c r="D193">
-        <v>34.25510977489729</v>
+        <v>0.8692582219835614</v>
       </c>
       <c r="E193">
-        <v>11.11611833812868</v>
+        <v>10.62068068501148</v>
       </c>
       <c r="F193">
-        <v>13.45537540769221</v>
+        <v>13.6512096912568</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.008742774893033352</v>
+        <v>1.926562242784105E-08</v>
       </c>
       <c r="C194">
-        <v>23.54249366990042</v>
+        <v>0.9724719766428048</v>
       </c>
       <c r="D194">
-        <v>34.18020724910276</v>
+        <v>0.8606598497167852</v>
       </c>
       <c r="E194">
-        <v>11.08616145602527</v>
+        <v>10.61277060534805</v>
       </c>
       <c r="F194">
-        <v>13.38914366341512</v>
+        <v>13.64517996058469</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.007604386084380974</v>
+        <v>2.270598999717338E-08</v>
       </c>
       <c r="C195">
-        <v>23.47768434734143</v>
+        <v>0.963345027324906</v>
       </c>
       <c r="D195">
-        <v>34.10537121820502</v>
+        <v>0.8521315055097511</v>
       </c>
       <c r="E195">
-        <v>11.05624104412904</v>
+        <v>10.60486188151184</v>
       </c>
       <c r="F195">
-        <v>13.32295923192837</v>
+        <v>13.63915135953598</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.006613460337713604</v>
+        <v>1.678122511676062E-08</v>
       </c>
       <c r="C196">
-        <v>23.41294928110313</v>
+        <v>0.954292348735</v>
       </c>
       <c r="D196">
-        <v>34.03060167001256</v>
+        <v>0.843672863779389</v>
       </c>
       <c r="E196">
-        <v>11.02635714366236</v>
+        <v>10.59695451480683</v>
       </c>
       <c r="F196">
-        <v>13.25682214741252</v>
+        <v>13.63312388846372</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.005751291996945177</v>
+        <v>5.92975656386615E-09</v>
       </c>
       <c r="C197">
-        <v>23.34828852480675</v>
+        <v>0.9453135322965691</v>
       </c>
       <c r="D197">
-        <v>33.95589859241906</v>
+        <v>0.8352835968857366</v>
       </c>
       <c r="E197">
-        <v>10.99650979585858</v>
+        <v>10.58904850653209</v>
       </c>
       <c r="F197">
-        <v>13.1907324441641</v>
+        <v>13.62709754772012</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.005001447986008351</v>
+        <v>-5.286272676419686E-09</v>
       </c>
       <c r="C198">
-        <v>23.28370213226728</v>
+        <v>0.936408169068575</v>
       </c>
       <c r="D198">
-        <v>33.88126197344582</v>
+        <v>0.8269633751733975</v>
       </c>
       <c r="E198">
-        <v>10.96669904202467</v>
+        <v>10.58114385799088</v>
       </c>
       <c r="F198">
-        <v>13.12469015669935</v>
+        <v>13.621072337657</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.004349513742253631</v>
+        <v>-7.344688653560819E-09</v>
       </c>
       <c r="C199">
-        <v>23.21919015752847</v>
+        <v>0.9275758485534712</v>
       </c>
       <c r="D199">
-        <v>33.80669180123376</v>
+        <v>0.8187118670148416</v>
       </c>
       <c r="E199">
-        <v>10.93692492350536</v>
+        <v>10.57324057048419</v>
       </c>
       <c r="F199">
-        <v>13.05869531978744</v>
+        <v>13.61504825862568</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>0.003782876240994678</v>
+        <v>1.125791975668488E-11</v>
       </c>
       <c r="C200">
-        <v>23.1547526548973</v>
+        <v>0.9188161587343373</v>
       </c>
       <c r="D200">
-        <v>33.73218806402657</v>
+        <v>0.8105287388784268</v>
       </c>
       <c r="E200">
-        <v>10.90718748167535</v>
+        <v>10.56533864530408</v>
       </c>
       <c r="F200">
-        <v>12.99274796842847</v>
+        <v>13.60902531097665</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.003290508183311315</v>
+        <v>1.399638384391351E-08</v>
       </c>
       <c r="C201">
-        <v>23.09038967890283</v>
+        <v>0.9101286866257843</v>
       </c>
       <c r="D201">
-        <v>33.65775075020544</v>
+        <v>0.8024136553578364</v>
       </c>
       <c r="E201">
-        <v>10.87748675796142</v>
+        <v>10.55743808375091</v>
       </c>
       <c r="F201">
-        <v>12.92684813797961</v>
+        <v>13.60300349506014</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.002862764877126036</v>
+        <v>2.27802320029153E-08</v>
       </c>
       <c r="C202">
-        <v>23.02610128432572</v>
+        <v>0.9015130184273127</v>
       </c>
       <c r="D202">
-        <v>33.58337984827523</v>
+        <v>0.7943662792359902</v>
       </c>
       <c r="E202">
-        <v>10.84782279385881</v>
+        <v>10.54953888712229</v>
       </c>
       <c r="F202">
-        <v>12.86099586410845</v>
+        <v>13.5969828112265</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.002491236074387812</v>
+        <v>1.840285279234402E-08</v>
       </c>
       <c r="C203">
-        <v>22.96188752621554</v>
+        <v>0.8929687392832582</v>
       </c>
       <c r="D203">
-        <v>33.50907534686081</v>
+        <v>0.786386271536457</v>
       </c>
       <c r="E203">
-        <v>10.81819563090607</v>
+        <v>10.54164105671123</v>
       </c>
       <c r="F203">
-        <v>12.79519118285828</v>
+        <v>13.59096325982547</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.002168589509866995</v>
+        <v>1.10263909422868E-08</v>
       </c>
       <c r="C204">
-        <v>22.89774845986897</v>
+        <v>0.8844954333497352</v>
       </c>
       <c r="D204">
-        <v>33.43483723472887</v>
+        <v>0.7784732915634007</v>
       </c>
       <c r="E204">
-        <v>10.78860531066048</v>
+        <v>10.53374459381262</v>
       </c>
       <c r="F204">
-        <v>12.72943413069963</v>
+        <v>13.58494484120559</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.001888433967756217</v>
+        <v>1.055030226035411E-08</v>
       </c>
       <c r="C205">
-        <v>22.83368414085286</v>
+        <v>0.8760926843488644</v>
       </c>
       <c r="D205">
-        <v>33.36066550077837</v>
+        <v>0.7706269969651774</v>
       </c>
       <c r="E205">
-        <v>10.75905187477982</v>
+        <v>10.52584949972239</v>
       </c>
       <c r="F205">
-        <v>12.66372474450367</v>
+        <v>13.57892755571655</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.001645197340441082</v>
+        <v>3.584640375798902E-09</v>
       </c>
       <c r="C206">
-        <v>22.76969462501341</v>
+        <v>0.8677600752983319</v>
       </c>
       <c r="D206">
-        <v>33.28656013403837</v>
+        <v>0.7628470437774886</v>
       </c>
       <c r="E206">
-        <v>10.72953536496659</v>
+        <v>10.51795577573487</v>
       </c>
       <c r="F206">
-        <v>12.59806306164242</v>
+        <v>13.5729114037075</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.001434037194457737</v>
+        <v>-8.57787237142933E-10</v>
       </c>
       <c r="C207">
-        <v>22.70577996845991</v>
+        <v>0.8594971882475926</v>
       </c>
       <c r="D207">
-        <v>33.21252112368643</v>
+        <v>0.7551330864750243</v>
       </c>
       <c r="E207">
-        <v>10.70005582295437</v>
+        <v>10.51006342314353</v>
       </c>
       <c r="F207">
-        <v>12.53244911996999</v>
+        <v>13.56689638552631</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.00125074103948759</v>
+        <v>3.285535654589529E-09</v>
       </c>
       <c r="C208">
-        <v>22.64194022758825</v>
+        <v>0.8513036052083909</v>
       </c>
       <c r="D208">
-        <v>33.13854845903919</v>
+        <v>0.7474847780291747</v>
       </c>
       <c r="E208">
-        <v>10.67061329055067</v>
+        <v>10.50217244324363</v>
       </c>
       <c r="F208">
-        <v>12.46688295786288</v>
+        <v>13.56088250152171</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.001091639530490991</v>
+        <v>1.269122180513308E-08</v>
       </c>
       <c r="C209">
-        <v>22.57817545908559</v>
+        <v>0.8431789076790929</v>
       </c>
       <c r="D209">
-        <v>33.06464212955142</v>
+        <v>0.7399017699499162</v>
       </c>
       <c r="E209">
-        <v>10.64120780962741</v>
+        <v>10.49428283733011</v>
       </c>
       <c r="F209">
-        <v>12.40136461426985</v>
+        <v>13.55486975204212</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.0009535458304005894</v>
+        <v>1.782458348332516E-08</v>
       </c>
       <c r="C210">
-        <v>22.5144857199136</v>
+        <v>0.8351226765867579</v>
       </c>
       <c r="D210">
-        <v>32.9908021248324</v>
+        <v>0.7323837123437111</v>
       </c>
       <c r="E210">
-        <v>10.6118394221079</v>
+        <v>10.48639460669772</v>
       </c>
       <c r="F210">
-        <v>12.33589412870491</v>
+        <v>13.54885813743556</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.0008336913840275868</v>
+        <v>1.922191057291868E-08</v>
       </c>
       <c r="C211">
-        <v>22.45087106733494</v>
+        <v>0.8271344926480196</v>
       </c>
       <c r="D211">
-        <v>32.91702843463622</v>
+        <v>0.7249302539637326</v>
       </c>
       <c r="E211">
-        <v>10.58250816996608</v>
+        <v>10.47850775264247</v>
       </c>
       <c r="F211">
-        <v>12.27047154131325</v>
+        <v>13.54284765804981</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0.0007296714143384247</v>
+        <v>8.783402099959729E-10</v>
       </c>
       <c r="C212">
-        <v>22.38733155891313</v>
+        <v>0.8192139365316051</v>
       </c>
       <c r="D212">
-        <v>32.84332104886361</v>
+        <v>0.7175410422583697</v>
       </c>
       <c r="E212">
-        <v>10.55321409525084</v>
+        <v>10.47062227646085</v>
       </c>
       <c r="F212">
-        <v>12.20509689287596</v>
+        <v>13.53683831423287</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.0006393919303821104</v>
+        <v>-2.112663413467413E-08</v>
       </c>
       <c r="C213">
-        <v>22.32386725249851</v>
+        <v>0.8113605886376658</v>
       </c>
       <c r="D213">
-        <v>32.76967995757341</v>
+        <v>0.7102157234257255</v>
       </c>
       <c r="E213">
-        <v>10.52395724006833</v>
+        <v>10.46273817944927</v>
       </c>
       <c r="F213">
-        <v>12.13977022483927</v>
+        <v>13.53083010633251</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.0005610389422630534</v>
+        <v>-1.971611148894538E-08</v>
       </c>
       <c r="C214">
-        <v>22.26047820625367</v>
+        <v>0.8035740290979732</v>
       </c>
       <c r="D214">
-        <v>32.69610515097551</v>
+        <v>0.7029539424629033</v>
       </c>
       <c r="E214">
-        <v>10.49473764657879</v>
+        <v>10.45485546290561</v>
       </c>
       <c r="F214">
-        <v>12.07449157935826</v>
+        <v>13.52482303469631</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.0004930371525081656</v>
+        <v>-1.95916042944032E-08</v>
       </c>
       <c r="C215">
-        <v>22.19716447864983</v>
+        <v>0.7958538383047273</v>
       </c>
       <c r="D215">
-        <v>32.62259661943423</v>
+        <v>0.6957553432177167</v>
       </c>
       <c r="E215">
-        <v>10.46555535701303</v>
+        <v>10.44697412812869</v>
       </c>
       <c r="F215">
-        <v>12.00926099930335</v>
+        <v>13.51881709967194</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.0004340168591422977</v>
+        <v>-2.042235389138344E-08</v>
       </c>
       <c r="C216">
-        <v>22.13392612845831</v>
+        <v>0.7881995966224635</v>
       </c>
       <c r="D216">
-        <v>32.54915435347515</v>
+        <v>0.68861956843917</v>
       </c>
       <c r="E216">
-        <v>10.43641041366394</v>
+        <v>10.43909417641762</v>
       </c>
       <c r="F216">
-        <v>11.94407852830614</v>
+        <v>13.51281230160698</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0.0003827895773122967</v>
+        <v>-5.014158465641449E-09</v>
       </c>
       <c r="C217">
-        <v>22.07076321477129</v>
+        <v>0.7806108842717082</v>
       </c>
       <c r="D217">
-        <v>32.4757783437809</v>
+        <v>0.6815462598300456</v>
       </c>
       <c r="E217">
-        <v>10.40730285888391</v>
+        <v>10.43121560907222</v>
       </c>
       <c r="F217">
-        <v>11.8789442107772</v>
+        <v>13.50680864084888</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.0003383246186702029</v>
+        <v>1.542083075141736E-08</v>
       </c>
       <c r="C218">
-        <v>22.0076757969975</v>
+        <v>0.7730872818944718</v>
       </c>
       <c r="D218">
-        <v>32.40246858119517</v>
+        <v>0.6745350580952328</v>
       </c>
       <c r="E218">
-        <v>10.37823273508673</v>
+        <v>10.42333842739414</v>
       </c>
       <c r="F218">
-        <v>11.81385809193176</v>
+        <v>13.50080611774516</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.0002997288615326166</v>
+        <v>3.187673132568564E-08</v>
       </c>
       <c r="C219">
-        <v>21.94466393485697</v>
+        <v>0.7656283702841722</v>
       </c>
       <c r="D219">
-        <v>32.32922505672656</v>
+        <v>0.6675856029939707</v>
       </c>
       <c r="E219">
-        <v>10.34920008475698</v>
+        <v>10.41546263268566</v>
       </c>
       <c r="F219">
-        <v>11.74882021783023</v>
+        <v>13.49480473264333</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.0002662246749209227</v>
+        <v>3.426379624719289E-08</v>
       </c>
       <c r="C220">
-        <v>21.88172768839892</v>
+        <v>0.7582337303988442</v>
       </c>
       <c r="D220">
-        <v>32.25604776154599</v>
+        <v>0.6606975333917939</v>
       </c>
       <c r="E220">
-        <v>10.32020495044125</v>
+        <v>10.40758822624937</v>
       </c>
       <c r="F220">
-        <v>11.68383063539771</v>
+        <v>13.48880448589083</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.0002371360939344629</v>
+        <v>1.604958149453693E-08</v>
       </c>
       <c r="C221">
-        <v>21.81886711799677</v>
+        <v>0.7509029435364396</v>
       </c>
       <c r="D221">
-        <v>32.18293668699114</v>
+        <v>0.6538704873000254</v>
       </c>
       <c r="E221">
-        <v>10.29124737473912</v>
+        <v>10.3997152093899</v>
       </c>
       <c r="F221">
-        <v>11.6188893924479</v>
+        <v>13.48280537783498</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.0002118794436807012</v>
+        <v>-9.769716912644617E-09</v>
       </c>
       <c r="C222">
-        <v>21.75608228434411</v>
+        <v>0.7436355914589666</v>
       </c>
       <c r="D222">
-        <v>32.10989182456864</v>
+        <v>0.6471041019458733</v>
       </c>
       <c r="E222">
-        <v>10.26232740032695</v>
+        <v>10.39184358341276</v>
       </c>
       <c r="F222">
-        <v>11.55399653771425</v>
+        <v>13.4768074088233</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.0001899461468160303</v>
+        <v>-2.95165923447118E-08</v>
       </c>
       <c r="C223">
-        <v>21.69337324847193</v>
+        <v>0.7364312562885857</v>
       </c>
       <c r="D223">
-        <v>32.03691316595202</v>
+        <v>0.6403980138117892</v>
       </c>
       <c r="E223">
-        <v>10.23344506994196</v>
+        <v>10.38397334962421</v>
       </c>
       <c r="F223">
-        <v>11.48915212088833</v>
+        <v>13.47081057920325</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.0001708950099053034</v>
+        <v>-2.124442152159505E-08</v>
       </c>
       <c r="C224">
-        <v>21.63074007174235</v>
+        <v>0.7292895205017875</v>
       </c>
       <c r="D224">
-        <v>31.96400070298693</v>
+        <v>0.6337518586879126</v>
       </c>
       <c r="E224">
-        <v>10.20460042638025</v>
+        <v>10.37610450933212</v>
       </c>
       <c r="F224">
-        <v>11.42435619263689</v>
+        <v>13.46481488932212</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.0001543453391867531</v>
+        <v>-1.304057316548628E-08</v>
       </c>
       <c r="C225">
-        <v>21.56818281584594</v>
+        <v>0.722209967267706</v>
       </c>
       <c r="D225">
-        <v>31.89115442769174</v>
+        <v>0.6271652716838938</v>
       </c>
       <c r="E225">
-        <v>10.17579351250272</v>
+        <v>10.36823706384552</v>
       </c>
       <c r="F225">
-        <v>11.35960880463428</v>
+        <v>13.45882033952739</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.0001399657315046925</v>
+        <v>-7.951732775043774E-09</v>
       </c>
       <c r="C226">
-        <v>21.50570154281728</v>
+        <v>0.7151921802849474</v>
       </c>
       <c r="D226">
-        <v>31.81837433225634</v>
+        <v>0.6206378873596415</v>
       </c>
       <c r="E226">
-        <v>10.14702437123789</v>
+        <v>10.36037101447462</v>
       </c>
       <c r="F226">
-        <v>11.29491000958953</v>
+        <v>13.4528269301665</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.0001274685188409226</v>
+        <v>9.457890887631937E-09</v>
       </c>
       <c r="C227">
-        <v>21.44329631502886</v>
+        <v>0.7082357436823651</v>
       </c>
       <c r="D227">
-        <v>31.74566040904754</v>
+        <v>0.6141693397189885</v>
       </c>
       <c r="E227">
-        <v>10.11829304557563</v>
+        <v>10.35250636253094</v>
       </c>
       <c r="F227">
-        <v>11.23025986127444</v>
+        <v>13.44683466158688</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.0001166047955529776</v>
+        <v>2.539493964213391E-08</v>
       </c>
       <c r="C228">
-        <v>21.38096719518972</v>
+        <v>0.7013402424331521</v>
       </c>
       <c r="D228">
-        <v>31.67301265060849</v>
+        <v>0.6077592622722464</v>
       </c>
       <c r="E228">
-        <v>10.08959957856504</v>
+        <v>10.34464310932745</v>
       </c>
       <c r="F228">
-        <v>11.16565841455249</v>
+        <v>13.44084353413596</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.000107157904142516</v>
+        <v>3.594967905176532E-08</v>
       </c>
       <c r="C229">
-        <v>21.31871424635827</v>
+        <v>0.6945052621704183</v>
       </c>
       <c r="D229">
-        <v>31.60043104965887</v>
+        <v>0.6014072880093513</v>
       </c>
       <c r="E229">
-        <v>10.06094401332385</v>
+        <v>10.33678125617839</v>
       </c>
       <c r="F229">
-        <v>11.10110572544325</v>
+        <v>13.43485354816121</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>9.894023383855521E-05</v>
+        <v>3.425080316554142E-08</v>
       </c>
       <c r="C230">
-        <v>21.25653753193741</v>
+        <v>0.6877303891863509</v>
       </c>
       <c r="D230">
-        <v>31.52791559909915</v>
+        <v>0.5951130496087332</v>
       </c>
       <c r="E230">
-        <v>10.03232639303142</v>
+        <v>10.32892080439927</v>
       </c>
       <c r="F230">
-        <v>11.03660185109399</v>
+        <v>13.42886470401013</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>9.178876049321458E-05</v>
+        <v>2.140203673302113E-08</v>
       </c>
       <c r="C231">
-        <v>21.19443711567417</v>
+        <v>0.6810152105558462</v>
       </c>
       <c r="D231">
-        <v>31.45546629201014</v>
+        <v>0.5888761793722651</v>
       </c>
       <c r="E231">
-        <v>10.00374676092691</v>
+        <v>10.32106175530724</v>
       </c>
       <c r="F231">
-        <v>10.9721468498317</v>
+        <v>13.42287700203023</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>8.556226925597017E-05</v>
+        <v>8.261788877797002E-09</v>
       </c>
       <c r="C232">
-        <v>21.13241306166988</v>
+        <v>0.6743593142523232</v>
       </c>
       <c r="D232">
-        <v>31.38308312165399</v>
+        <v>0.5826963093011566</v>
       </c>
       <c r="E232">
-        <v>9.975205160314127</v>
+        <v>10.31320411022081</v>
       </c>
       <c r="F232">
-        <v>10.90774078119872</v>
+        <v>13.41689044256905</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>8.013988183183366E-05</v>
+        <v>-9.267602142404948E-10</v>
       </c>
       <c r="C233">
-        <v>21.07046543437659</v>
+        <v>0.6677622890603908</v>
       </c>
       <c r="D233">
-        <v>31.31076608147723</v>
+        <v>0.576573071047991</v>
       </c>
       <c r="E233">
-        <v>9.94670163455973</v>
+        <v>10.30534787045965</v>
       </c>
       <c r="F233">
-        <v>10.84338370607124</v>
+        <v>13.41090502597416</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>7.541416448909291E-05</v>
+        <v>-4.12210382901207E-09</v>
       </c>
       <c r="C234">
-        <v>21.00859429859722</v>
+        <v>0.6612237245698044</v>
       </c>
       <c r="D234">
-        <v>31.23851516511098</v>
+        <v>0.5705060961648606</v>
       </c>
       <c r="E234">
-        <v>9.918236227090965</v>
+        <v>10.29749303734524</v>
       </c>
       <c r="F234">
-        <v>10.77907568651273</v>
+        <v>13.40492075259315</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>7.129495914474979E-05</v>
+        <v>-1.912631339180061E-09</v>
       </c>
       <c r="C235">
-        <v>20.94679971949395</v>
+        <v>0.654743211429752</v>
       </c>
       <c r="D235">
-        <v>31.16633036637201</v>
+        <v>0.5644950160078556</v>
       </c>
       <c r="E235">
-        <v>9.889808981394662</v>
+        <v>10.28963961220044</v>
       </c>
       <c r="F235">
-        <v>10.71481678592113</v>
+        <v>13.39893762277367</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6.769753411839433E-05</v>
+        <v>-4.865977228499073E-09</v>
       </c>
       <c r="C236">
-        <v>20.88508176258543</v>
+        <v>0.6483203412303969</v>
       </c>
       <c r="D236">
-        <v>31.09421167926532</v>
+        <v>0.5585394618192041</v>
       </c>
       <c r="E236">
-        <v>9.861419941022199</v>
+        <v>10.28178759634947</v>
       </c>
       <c r="F236">
-        <v>10.65060706904531</v>
+        <v>13.39295563686339</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6.455530161717958E-05</v>
+        <v>-8.062528302326135E-09</v>
       </c>
       <c r="C237">
-        <v>20.82344049374722</v>
+        <v>0.6419547064498143</v>
       </c>
       <c r="D237">
-        <v>31.02215909798453</v>
+        <v>0.5526390646696117</v>
       </c>
       <c r="E237">
-        <v>9.833069149584993</v>
+        <v>10.27393699111812</v>
       </c>
       <c r="F237">
-        <v>10.58644660212575</v>
+        <v>13.38697479521001</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6.180566699490475E-05</v>
+        <v>-5.982582031404221E-09</v>
       </c>
       <c r="C238">
-        <v>20.76187597921906</v>
+        <v>0.6356459007205024</v>
       </c>
       <c r="D238">
-        <v>30.95017261691324</v>
+        <v>0.5467934557211606</v>
       </c>
       <c r="E238">
-        <v>9.804756650750768</v>
+        <v>10.26608779783376</v>
       </c>
       <c r="F238">
-        <v>10.5223354526857</v>
+        <v>13.38099509816126</v>
       </c>
     </row>
   </sheetData>
